--- a/url crawler/wiley/csv/Wiley_Agriculture Brunei.xlsx
+++ b/url crawler/wiley/csv/Wiley_Agriculture Brunei.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="971">
   <si>
     <t xml:space="preserve">Keyword : </t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-26T15:27:02.025581</t>
+    <t>2018-07-26T15:40:51.411316</t>
   </si>
   <si>
     <t>S.No</t>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>A. SIVAPALAN</t>
+  </si>
+  <si>
+    <t>Cannotgetemail</t>
   </si>
   <si>
     <t>Cannot get email</t>
@@ -588,6 +591,2426 @@
   </si>
   <si>
     <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1998.tb00247.x</t>
+  </si>
+  <si>
+    <t>R.D. Hill</t>
+  </si>
+  <si>
+    <t>Department of Ecology and Biodiversity, University of Hong Kong, Hong Kong</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3059.1990.tb02490.x</t>
+  </si>
+  <si>
+    <t>A serious disease of seedling rambutan caused by Pseudocercospora nephelii sp. nov.</t>
+  </si>
+  <si>
+    <t>Plant Pathology</t>
+  </si>
+  <si>
+    <t>Volume 39, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: March 1990</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3059.1990.tb02490.x</t>
+  </si>
+  <si>
+    <t>W. T. H. PEREGRINE</t>
+  </si>
+  <si>
+    <t>Department of Agriculture, Bandar Seri Begawan, Brunei</t>
+  </si>
+  <si>
+    <t>Hj. KASSIM BIN AHMAD</t>
+  </si>
+  <si>
+    <t>AHMAD BIN Hj. ABAS</t>
+  </si>
+  <si>
+    <t>B. C. SUTTON</t>
+  </si>
+  <si>
+    <t>CAB International Mycological Institute, Ferry Lane, Kew, Surrey TW9 3AF, UK</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/cjag.12135</t>
+  </si>
+  <si>
+    <t>North American Trade Policy for Agriculture and Forestry: Can Economics Trump Politics?</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Agricultural Economics/Revue canadienne d'agroeconomie</t>
+  </si>
+  <si>
+    <t>Volume 65, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: 30 January 2017</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/cjag.12135</t>
+  </si>
+  <si>
+    <t>Michele Veeman</t>
+  </si>
+  <si>
+    <t>michele.veeman@ualberta.ca780-492-0270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-mail address:michele.veeman@ualberta.ca780-492-0270; fax: 780-492-0268
+            </t>
+  </si>
+  <si>
+    <t>Professor Emerita, Department of Resource Economics and Environmental Sociology, University of Alberta, Edmonton, Alberta, Canada</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1440-6055.2008.00667.x</t>
+  </si>
+  <si>
+    <t>Acoustic localisation of frog hosts by blood‐sucking flies Corethrella Coquillet (Diptera: Corethrellidae) in Borneo</t>
+  </si>
+  <si>
+    <t>Australian Journal of Entomology</t>
+  </si>
+  <si>
+    <t>Volume 47, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 29 October 2008</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1440-6055.2008.00667.x</t>
+  </si>
+  <si>
+    <t>T Ulmar Grafe</t>
+  </si>
+  <si>
+    <t>grafe@biozentrum.uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Biology, University Brunei Darussalam, Tungku Link, Gadong BE 1410,
+               Brunei Darussalam.
+            </t>
+  </si>
+  <si>
+    <t>Hamsiah Binti Mohd Saat</t>
+  </si>
+  <si>
+    <t>Nicole Hagen</t>
+  </si>
+  <si>
+    <t>Department of Animal Ecology and Tropical Biology, University of Würzburg, Biozentrum, Am Hubland, 97074 Würzburg, Germany.</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Benjamin Kaluza</t>
+  </si>
+  <si>
+    <t>Zaeidi Bin Hj Berudin</t>
+  </si>
+  <si>
+    <t>Mohd Amren Bin Abdul Wahab</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1536-7150.1978.tb02809.x</t>
+  </si>
+  <si>
+    <t>The Impact of Natural Disasters on Third World Agriculture: An Exploratory Survey of the Need for Some New Dimensions in Development Planning</t>
+  </si>
+  <si>
+    <t>American Journal of Economics and Sociology</t>
+  </si>
+  <si>
+    <t>Volume 37, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: April 1978</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1536-7150.1978.tb02809.x</t>
+  </si>
+  <si>
+    <t>Frank Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen Elizabeth House, 21 St. Giles Road Oxford, England OX1 3LA and Wolf son College
+               Oxford University
+            </t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1046/j.1469-8137.2001.00125.x</t>
+  </si>
+  <si>
+    <t>Are ectomycorrhizas more abundant than arbuscular mycorrhizas in tropical heath forests?</t>
+  </si>
+  <si>
+    <t>New Phytologist</t>
+  </si>
+  <si>
+    <t>Volume 150, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 21 December 2001</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1046/j.1469-8137.2001.00125.x</t>
+  </si>
+  <si>
+    <t>B. Moyersoen</t>
+  </si>
+  <si>
+    <t>bmoyersoen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Biology Department, Universiti Brunei Darussalam, Tungku Link BE1410, Brunei Darussalam;</t>
+  </si>
+  <si>
+    <t>Current address: Université de Liège, Département de Botanique, Sart Tilman B22, 4000 Liège, Belgique;</t>
+  </si>
+  <si>
+    <t>P. Becker</t>
+  </si>
+  <si>
+    <t>Current address: PO Box 367, Bunker, MO 63629, USA;</t>
+  </si>
+  <si>
+    <t>I. J. Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Aberdeen, Department of Plant and Soil Science, Cruickshank Building,
+               Aberdeen AB24 3UU, UK
+            </t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1469-8137.2011.03965.x</t>
+  </si>
+  <si>
+    <t>Evidence of foliar aluminium accumulation in local, regional and global datasets of
+               wild plants</t>
+  </si>
+  <si>
+    <t>Volume 193, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 23 November 2011</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1469-8137.2011.03965.x</t>
+  </si>
+  <si>
+    <t>Faizah Metali</t>
+  </si>
+  <si>
+    <t>faizah.metali@ubd.edu.bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biology Programme, Faculty of Science, University of Brunei Darussalam, Jalan Tungku
+               Link, Bandar Seri Begawan, BE1410, Brunei Darussalam
+            </t>
+  </si>
+  <si>
+    <t>Kamariah A. Salim</t>
+  </si>
+  <si>
+    <t>David F. R. P. Burslem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School of Biological Sciences, Cruickshank Building, University of Aberdeen, St Machar
+               Drive, Aberdeen, AB24 3UU, UK
+            </t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00037.x</t>
+  </si>
+  <si>
+    <t>SOILS: AGRICULTURAL AND ENGINEERING PROPERTIES</t>
+  </si>
+  <si>
+    <t>Volume 13, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: June 1993</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00037.x</t>
+  </si>
+  <si>
+    <t>Dulima Jali</t>
+  </si>
+  <si>
+    <t>Universiti Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Jahangir E. Elahi Choudhury</t>
+  </si>
+  <si>
+    <t>Ministry of Development, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/sjtg.12107</t>
+  </si>
+  <si>
+    <t>State‐led talent return migration programme and the doubly neglected ‘Malaysian diaspora’: Whose diaspora, what citizenship, whose development?</t>
+  </si>
+  <si>
+    <t>Volume 36, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 14 July 2015</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/sjtg.12107</t>
+  </si>
+  <si>
+    <t>Sin Yee Koh</t>
+  </si>
+  <si>
+    <t>s.y.koh@alumni.lse.ac.uk</t>
+  </si>
+  <si>
+    <t>Institute of Asian Studies, Universiti Brunei DarussalamBrunei‐Muara, Brunei</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/wbm.12077</t>
+  </si>
+  <si>
+    <t>Impact of Cuscuta australis infection on the photosynthesis of the invasive host, Mikania micrantha, under drought condition</t>
+  </si>
+  <si>
+    <t>Weed Biology and Management</t>
+  </si>
+  <si>
+    <t>Volume 15, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 08 September 2015</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/wbm.12077</t>
+  </si>
+  <si>
+    <t>Quang‐Vuong Le</t>
+  </si>
+  <si>
+    <t>Environmental and Life Sciences Program, Faculty of Science and Institute for Biodiversity and Environmental Research, Universiti Brunei DarussalamGadong, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Faculty of Biology, Vinh UniversityVinh, Vietnam</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Linda B.L. Lim</t>
+  </si>
+  <si>
+    <t>Chemistry Program, Faculty of Science, Universiti Brunei DarussalamGadong, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Department of Biology, Catawba CollegeSalisbury, North Carolina, USA</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/taja.12240</t>
+  </si>
+  <si>
+    <t>Benedictine Monastic Communitas in Wartime Central Vietnam (1954–75)</t>
+  </si>
+  <si>
+    <t>The Australian Journal of Anthropology</t>
+  </si>
+  <si>
+    <t>Volume 28, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 26 July 2017</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/taja.12240</t>
+  </si>
+  <si>
+    <t>Jeremy Jammes</t>
+  </si>
+  <si>
+    <t>jeremy.jammes@gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail address:jeremy.jammes@gmail.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00041.x</t>
+  </si>
+  <si>
+    <t>FISHERY RESOURCES</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00041.x</t>
+  </si>
+  <si>
+    <t>Selvanathan Subramaniam</t>
+  </si>
+  <si>
+    <t>Ministry of Industry and Primary Resources, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00042.x</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL FORESTRY</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00042.x</t>
+  </si>
+  <si>
+    <t>T. M. Wong</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00040.x</t>
+  </si>
+  <si>
+    <t>GEOLOGICAL RESOURCES</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1992.tb00040.x</t>
+  </si>
+  <si>
+    <t>Quazi Abdul Halim</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1748-1090.1972.tb02328.x</t>
+  </si>
+  <si>
+    <t>Rearing a Leathery turtle (Dermochelys coriacea) in captivity</t>
+  </si>
+  <si>
+    <t>International Zoo Yearbook</t>
+  </si>
+  <si>
+    <t>Volume 12, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: January 1972</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1748-1090.1972.tb02328.x</t>
+  </si>
+  <si>
+    <t>ELMAR BIRKENMEIER</t>
+  </si>
+  <si>
+    <t>State Fisheries Officer, Brunei, Borneo</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1046/j.1365-2435.2000.00455.x</t>
+  </si>
+  <si>
+    <t>Competition in the regeneration niche between conifers and angiosperms: Bond's slow
+               seedling hypothesis</t>
+  </si>
+  <si>
+    <t>Functional Ecology</t>
+  </si>
+  <si>
+    <t>Volume 14, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 25 December 2001</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1046/j.1365-2435.2000.00455.x</t>
+  </si>
+  <si>
+    <t>Department of Biology, Universiti Brunei Darussalam, Gadong BE1410, Brunei</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/ecs2.1479</t>
+  </si>
+  <si>
+    <t>Fluvial biotopes influence macroinvertebrate biodiversity in South‐East Asian tropical
+               streams</t>
+  </si>
+  <si>
+    <t>Ecosphere</t>
+  </si>
+  <si>
+    <t>Volume 7, Issue 12</t>
+  </si>
+  <si>
+    <t>First published: 21 December 2016</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/ecs2.1479</t>
+  </si>
+  <si>
+    <t>Kate Baker</t>
+  </si>
+  <si>
+    <t>kate.baker@kcl.ac</t>
+  </si>
+  <si>
+    <t>E-mail address:kate.baker@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>Department of Geography, King's College LondonLondon, UK</t>
+  </si>
+  <si>
+    <t>Michael A. Chadwick</t>
+  </si>
+  <si>
+    <t>Rafhiah Kahar</t>
+  </si>
+  <si>
+    <t>Institute for Biodiversity and Environmental Research, Universiti Brunei Darussalam, Brunei Darussalam, Brunei</t>
+  </si>
+  <si>
+    <t>Zohrah Haji Sulaiman</t>
+  </si>
+  <si>
+    <t>Rodzay A. Wahab</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-2664.2007.01291.x</t>
+  </si>
+  <si>
+    <t>Estimating regional species richness of tropical insects from museum data: a comparison
+               of a geography‐based and sample‐based methods</t>
+  </si>
+  <si>
+    <t>Journal of Applied Ecology</t>
+  </si>
+  <si>
+    <t>Volume 44, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 16 March 2007</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-2664.2007.01291.x</t>
+  </si>
+  <si>
+    <t>JAN BECK</t>
+  </si>
+  <si>
+    <t>jan.beck@unibas.ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuala Belalong Field Studies Centre, Universiti Brunei Darussalam, Tungku Link, Gadong
+               BE1410, Brunei; and
+            </t>
+  </si>
+  <si>
+    <t>IAN J. KITCHING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Entomology, The Natural History Museum, Cromwell Road, London SW7 5BD,
+               UK
+            </t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1759-5436.1986.mp17004008.x</t>
+  </si>
+  <si>
+    <t>The Economics of Labour Shortage: Three Case Studies from Northern Borneo</t>
+  </si>
+  <si>
+    <t>IDS Bulletin</t>
+  </si>
+  <si>
+    <t>Volume 17, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: October 1986</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1759-5436.1986.mp17004008.x</t>
+  </si>
+  <si>
+    <t>Christopher Colclough</t>
+  </si>
+  <si>
+    <t>Martin Godfrey</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-923X.1986.tb00702.x</t>
+  </si>
+  <si>
+    <t>Class, Race and Capital in South Africa Revisited</t>
+  </si>
+  <si>
+    <t>The Political Quarterly</t>
+  </si>
+  <si>
+    <t>Volume 57, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: January 1986</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-923X.1986.tb00702.x</t>
+  </si>
+  <si>
+    <t>Jesmond Blumenfeld</t>
+  </si>
+  <si>
+    <t>Brunei University</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/nph.12987</t>
+  </si>
+  <si>
+    <t>Controls on foliar nutrient and aluminium concentrations in a tropical tree flora:
+               phylogeny, soil chemistry and interactions among elements</t>
+  </si>
+  <si>
+    <t>Volume 205, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: 19 August 2014</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/nph.12987</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-2508-1535</t>
+  </si>
+  <si>
+    <t>Environmental and Life Sciences Group, Faculty of Science, Universiti Brunei Darussalam, Bandar Seri Begawan, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Kamariah Abu Salim</t>
+  </si>
+  <si>
+    <t>Kushan Tennakoon</t>
+  </si>
+  <si>
+    <t>School of Biological Sciences, University of Aberdeen, Aberdeen, UK</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3113.2009.00480.x</t>
+  </si>
+  <si>
+    <t>A review of the morphologically diverse leafhopper subfamily Stegelytrinae (Hemiptera:
+               Cicadellidae) with description of new taxa</t>
+  </si>
+  <si>
+    <t>Systematic Entomology</t>
+  </si>
+  <si>
+    <t>Volume 35, Issue 1</t>
+  </si>
+  <si>
+    <t>First published: 04 January 2010</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3113.2009.00480.x</t>
+  </si>
+  <si>
+    <t>CONG WEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Laboratory of Plant Protection Resources and Pest Management of Ministry of Education,
+               Entomological Museum, Northwest Agriculture and Forestry University, Yangling, Shaanxi,
+               China
+            </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Department of Entomology, The Natural History Museum, London, U.K.</t>
+  </si>
+  <si>
+    <t>MICHAEL D. WEBB</t>
+  </si>
+  <si>
+    <t>m.webb@nhm.ac.uk</t>
+  </si>
+  <si>
+    <t>YALIN ZHANG</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1574-0862.2008.00349.x</t>
+  </si>
+  <si>
+    <t>Is a slowdown in agricultural productivity growth contributing to the rise in commodity
+               prices?</t>
+  </si>
+  <si>
+    <t>Agricultural Economics</t>
+  </si>
+  <si>
+    <t>Volume 39</t>
+  </si>
+  <si>
+    <t>First published: 08 December 2008</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1574-0862.2008.00349.x</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/0019-8676.00141</t>
+  </si>
+  <si>
+    <t>Industrialization, Female Labor Force Participation, and the Modern Division of Labor
+               by Sex</t>
+  </si>
+  <si>
+    <t>Industrial Relations: A Journal of Economy and Society</t>
+  </si>
+  <si>
+    <t>Volume 38, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 17 December 2002</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/0019-8676.00141</t>
+  </si>
+  <si>
+    <t>William Rau</t>
+  </si>
+  <si>
+    <t>Department of Sociology, Illinois State University</t>
+  </si>
+  <si>
+    <t>Robert Wazienski</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1748-3131.2009.01127.x</t>
+  </si>
+  <si>
+    <t>Politics of Trade in the USA and in the Obama Administration: Implications for Asian
+               Regionalism</t>
+  </si>
+  <si>
+    <t>Asian Economic Policy Review</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 24 November 2009</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1748-3131.2009.01127.x</t>
+  </si>
+  <si>
+    <t>Claude BARFIELD</t>
+  </si>
+  <si>
+    <t>cbarfield@aei.org</t>
+  </si>
+  <si>
+    <t>The American Enterprise Institute</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.0165-0203.2003.00060.x</t>
+  </si>
+  <si>
+    <t>Natural resources and ‘gradual’ reform in Uzbekistan and Turkmenistan</t>
+  </si>
+  <si>
+    <t>Natural Resources Forum</t>
+  </si>
+  <si>
+    <t>Volume 27, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 05 December 2003</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.0165-0203.2003.00060.x</t>
+  </si>
+  <si>
+    <t>Richard Auty</t>
+  </si>
+  <si>
+    <t>r.auty@lancaster.ac.uk.</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-2486.2012.02747.x</t>
+  </si>
+  <si>
+    <t>Carbon outcomes of major land‐cover transitions in SE Asia: great uncertainties and REDD+ policy implications</t>
+  </si>
+  <si>
+    <t>Global Change Biology</t>
+  </si>
+  <si>
+    <t>Volume 18, Issue 10</t>
+  </si>
+  <si>
+    <t>First published: 21 May 2012</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-2486.2012.02747.x</t>
+  </si>
+  <si>
+    <t>Alan D. Ziegler</t>
+  </si>
+  <si>
+    <t>geoadz@nus.edu.sg</t>
+  </si>
+  <si>
+    <t>Geography Department, National University of Singapore, Kent Ridge, Singapore</t>
+  </si>
+  <si>
+    <t>Jacob Phelps</t>
+  </si>
+  <si>
+    <t>Department of Biological Science, National University of Singapore, Singapore</t>
+  </si>
+  <si>
+    <t>Jia QI Yuen</t>
+  </si>
+  <si>
+    <t>Edward L. Webb</t>
+  </si>
+  <si>
+    <t>Deborah Lawrence</t>
+  </si>
+  <si>
+    <t>Environmental Sciences Department, University of Virginia, Charlottesville, VA, USA</t>
+  </si>
+  <si>
+    <t>Jeff M. Fox</t>
+  </si>
+  <si>
+    <t>East‐West Center, Honolulu, HI, USA</t>
+  </si>
+  <si>
+    <t>Thilde B. Bruun</t>
+  </si>
+  <si>
+    <t>Department of Plant and Environmental Sciences, University of Copenhagen, Frederiksberg C, Denmark</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Stephen J. Leisz</t>
+  </si>
+  <si>
+    <t>Department of Anthropology, Clark B220, Colorado State UniversityFort Collins, CO, USA</t>
+  </si>
+  <si>
+    <t>Casey M. Ryan</t>
+  </si>
+  <si>
+    <t>School of GeoSciences, University of Edinburgh, Edinburgh, UK</t>
+  </si>
+  <si>
+    <t>Wolfram Dressler</t>
+  </si>
+  <si>
+    <t>Forest and Nature Conservation Policy Group, Wageningen University, Wageningen, The Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Ole Mertz</t>
+  </si>
+  <si>
+    <t>Department of Geography and Geology, University of Copenhagen, Copenhagen K, Denmark</t>
+  </si>
+  <si>
+    <t>Unai Pascual</t>
+  </si>
+  <si>
+    <t>Department of Land Economy, University of Cambridge, Cambridge, UK</t>
+  </si>
+  <si>
+    <t>Basque Centre for Climate Change &amp; Basque Foundation for Science – Ikerbasque, Bilbao, Spain</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Christine Padoch</t>
+  </si>
+  <si>
+    <t>Institute of Economic Botany, New York Botanical Garden, Bronx, NY, USA</t>
+  </si>
+  <si>
+    <t>Centre for International Forestry Research (CIFOR), Bogor Barat, Indonesia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Lian Pin Koh</t>
+  </si>
+  <si>
+    <t>Institute of Terrestrial Ecosystems, Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/1365-2745.12263</t>
+  </si>
+  <si>
+    <t>Tropical forest wood production: a cross‐continental comparison</t>
+  </si>
+  <si>
+    <t>Journal of Ecology</t>
+  </si>
+  <si>
+    <t>Volume 102, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 21 April 2014</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/1365-2745.12263</t>
+  </si>
+  <si>
+    <t>Lindsay Banin</t>
+  </si>
+  <si>
+    <t>Lindsay.banin@gmail.com</t>
+  </si>
+  <si>
+    <t>Centre for Ecology and Hydrology, Bush EstatePenicuik, Midlothian, UK</t>
+  </si>
+  <si>
+    <t>School of Geography, University of LeedsLeeds, West Yorkshire, UK</t>
+  </si>
+  <si>
+    <t>Simon L. Lewis</t>
+  </si>
+  <si>
+    <t>Department of Geography, University College LondonLondon, UK</t>
+  </si>
+  <si>
+    <t>Gabriela Lopez‐Gonzalez</t>
+  </si>
+  <si>
+    <t>Timothy R. Baker</t>
+  </si>
+  <si>
+    <t>Carlos A. Quesada</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Pesquisas da Amazônia, Manaus, AM, Brazil</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Kuo‐Jung Chao</t>
+  </si>
+  <si>
+    <t>International Master Program of Agriculture, College of Agriculture and Natural Resources, National Chung Hsing UniversityTaichung, Taiwan</t>
+  </si>
+  <si>
+    <t>School of Biological Sciences, University of AberdeenAberdeen, UK</t>
+  </si>
+  <si>
+    <t>Reuben Nilus</t>
+  </si>
+  <si>
+    <t>Forest Research Centre, Sabah Forestry Department, Sandakan, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Environmental and Life Sciences, Faculty of Science, Universiti Brunei Darussalam, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Helen C. Keeling</t>
+  </si>
+  <si>
+    <t>Sylvester Tan</t>
+  </si>
+  <si>
+    <t>Sarawak Forestry Corporation, Kuching, Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>Stuart J. Davies</t>
+  </si>
+  <si>
+    <t>Center for Tropical Forest Science, Smithsonian Tropical Research Institute, Washington, DC, USA</t>
+  </si>
+  <si>
+    <t>Abel Monteagudo Mendoza</t>
+  </si>
+  <si>
+    <t>Jardín Botánico de MissouriOxapampa, Pasco, Peru</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Rodolfo Vásquez</t>
+  </si>
+  <si>
+    <t>Jon Lloyd</t>
+  </si>
+  <si>
+    <t>Faculty of Natural Sciences, Department of Life Sciences, Imperial College London, London, UK</t>
+  </si>
+  <si>
+    <t>David A. Neill</t>
+  </si>
+  <si>
+    <t>Universidad Estatal Amazónica, Ecuador</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Nigel Pitman</t>
+  </si>
+  <si>
+    <t>Science and Education, The Field Museum, Chicago, IL, USA</t>
+  </si>
+  <si>
+    <t>Nicholas School of the Environment, Duke University, NC, USA</t>
+  </si>
+  <si>
+    <t>Oliver L. Phillips</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1747-0765.2005.tb00027.x</t>
+  </si>
+  <si>
+    <t>Soil Characteristics under Three Vegetation Types Associated with Shifting Cultivation
+               in a Mixed Dipterocarp Forest in Sarawak, Malaysia</t>
+  </si>
+  <si>
+    <t>Soil Science &amp; Plant Nutrition</t>
+  </si>
+  <si>
+    <t>Volume 51, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 24 January 2006</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1747-0765.2005.tb00027.x</t>
+  </si>
+  <si>
+    <t>Daisuke Hattori</t>
+  </si>
+  <si>
+    <t>United Graduate School of Agricultural Science, Ehime University, Matsuyama, 790–8566 Japan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>John Sabang</t>
+  </si>
+  <si>
+    <t>Forest Department Sarawak, Kuching, Sarawak 93660, Malaysia</t>
+  </si>
+  <si>
+    <t>Sota Tanaka</t>
+  </si>
+  <si>
+    <t>Graduate School of Kuroshio Science, Kochi University, Nankoku, 783‐8502 Japan</t>
+  </si>
+  <si>
+    <t>Joseph Jawa Kendawang</t>
+  </si>
+  <si>
+    <t>Ikuo Ninomiya</t>
+  </si>
+  <si>
+    <t>Faculty of Agriculture, Ehime University, Matsuyama, 790‐8566 Japan</t>
+  </si>
+  <si>
+    <t>Katsutoshi Sakurai</t>
+  </si>
+  <si>
+    <t>Faculty of Agriculture, Kochi University, Nankoku, 783‐8502 Japan</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/epp.12131</t>
+  </si>
+  <si>
+    <t>Is terrestrial plant import from East Asia into countries in the EPPO region a potential pathway for new emerging invasive
+               alien plants?</t>
+  </si>
+  <si>
+    <t>Volume 44, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 26 June 2014</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/epp.12131</t>
+  </si>
+  <si>
+    <t>J. van Valkenburg</t>
+  </si>
+  <si>
+    <t>j.l.c.h..van.valkenburg@minlnv.nl</t>
+  </si>
+  <si>
+    <t>E-mail address:j.l.c.h..van.valkenburg@minlnv.nl</t>
+  </si>
+  <si>
+    <t>National Plant Protection Organization (NPPO‐NL), Wageningen, The Netherlands</t>
+  </si>
+  <si>
+    <t>S. Brunel</t>
+  </si>
+  <si>
+    <t>European and Mediterranean Plant Protection Organization (EPPO), Paris, France</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>G. Brundu</t>
+  </si>
+  <si>
+    <t>Department of Agriculture, University of Sassari, Sassari, Italy</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>P. Ehret</t>
+  </si>
+  <si>
+    <t>DRAAF/Service Régional de l'Alimentation Maison de l'Agriculture, 34 060 Montpellier, France</t>
+  </si>
+  <si>
+    <t>S. Follak</t>
+  </si>
+  <si>
+    <t>Austrian Agency for Health and Food Safety, Institute for Sustainable Plant Production, Vienna, Austria</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>A. Uludag</t>
+  </si>
+  <si>
+    <t>Plant Protection Department, COMU, Faculty of Agriculture, Canakkale, Turkey</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/zoj.12330</t>
+  </si>
+  <si>
+    <t>Systematics and biogeography of the ant genus Crematogaster Lund subgenus Orthocrema Santschi in Asia (Hymenoptera: Formicidae)</t>
+  </si>
+  <si>
+    <t>Zoological Journal of the Linnean Society</t>
+  </si>
+  <si>
+    <t>Volume 176, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 10 February 2016</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/zoj.12330</t>
+  </si>
+  <si>
+    <t>Shingo Hosoishi</t>
+  </si>
+  <si>
+    <t>hosoishi@gmail.com</t>
+  </si>
+  <si>
+    <t>Institute of Tropical Agriculture, Kyushu UniversityFukuoka, Japan</t>
+  </si>
+  <si>
+    <t>Kazuo Ogata</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-2389.1961.tb00912.x</t>
+  </si>
+  <si>
+    <t>SOME SARAWAK SOILS</t>
+  </si>
+  <si>
+    <t>Journal of Soil Science</t>
+  </si>
+  <si>
+    <t>Volume 12, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: September 1961</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-2389.1961.tb00912.x</t>
+  </si>
+  <si>
+    <t>T. W. W. WOOD</t>
+  </si>
+  <si>
+    <t>Forest Dept., Sarawak</t>
+  </si>
+  <si>
+    <t>P. H. T. BECKETT</t>
+  </si>
+  <si>
+    <t>Soil Science Laboratory, Dept. of Agriculture, Oxford</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9388.1993.tb00143.x</t>
+  </si>
+  <si>
+    <t>Book Reviews</t>
+  </si>
+  <si>
+    <t>Review of European Community &amp; International Environmental Law</t>
+  </si>
+  <si>
+    <t>Volume 2, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: December 1993</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9388.1993.tb00143.x</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/agec.12413</t>
+  </si>
+  <si>
+    <t>The impact of EU trade preferences on the extensive and intensive margins of agricultural
+               and food products</t>
+  </si>
+  <si>
+    <t>Volume 49, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 22 January 2018</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/agec.12413</t>
+  </si>
+  <si>
+    <t>Margherita Scoppola</t>
+  </si>
+  <si>
+    <t>Department of Political Science, Communication and International Relation, University of MacerataMacerata, Italy</t>
+  </si>
+  <si>
+    <t>Valentina Raimondi</t>
+  </si>
+  <si>
+    <t>valentina.raimondi@unimi.it</t>
+  </si>
+  <si>
+    <t>E-mail address:valentina.raimondi@unimi.it</t>
+  </si>
+  <si>
+    <t>Department of Environmental Science and Policy, University of MilanoMilano, Italy</t>
+  </si>
+  <si>
+    <t>Alessandro Olper</t>
+  </si>
+  <si>
+    <t>LICOS – Centre for Institution and Economic Performance, KU LeuvenBelgium</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-8373.2006.00320.x</t>
+  </si>
+  <si>
+    <t>Sustainable fisheries management in the resource periphery: The cases of Chile and
+               New Zealand</t>
+  </si>
+  <si>
+    <t>Asia Pacific Viewpoint</t>
+  </si>
+  <si>
+    <t>Volume 47, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 19 October 2006</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-8373.2006.00320.x</t>
+  </si>
+  <si>
+    <t>Jonathan R. Barton</t>
+  </si>
+  <si>
+    <t>jbarton@puc.cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Instituto de Estudios Urbanos y Territoriales, Pontificia Universidad Católica de Chile, El Comendador 1916, Pedro de Valdivia Norte, Casilla 16002‐Correo 9, Santiago de Chile.Email: jbarton@puc.cl</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3113.1985.tb00149.x</t>
+  </si>
+  <si>
+    <t>The Hiletini, an ancient and enigmatic tribe of Carabidae with a pantropical distribution
+               (Coleoptera)</t>
+  </si>
+  <si>
+    <t>Volume 10, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: October 1985</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3113.1985.tb00149.x</t>
+  </si>
+  <si>
+    <t>TERRY L. ERWIN</t>
+  </si>
+  <si>
+    <t>National Museum of Natural History, Smithsonian Institution, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>NIGEL E. STORK</t>
+  </si>
+  <si>
+    <t>*British Museum (Natural History), London</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9701.2008.01138.x</t>
+  </si>
+  <si>
+    <t>Liberalising Trends in Israel's Trade Policy: Trade Policy Review of Israel</t>
+  </si>
+  <si>
+    <t>World Economy</t>
+  </si>
+  <si>
+    <t>Volume 31, Issue 11</t>
+  </si>
+  <si>
+    <t>First published: 23 October 2008</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9701.2008.01138.x</t>
+  </si>
+  <si>
+    <t>Alfred Tovias</t>
+  </si>
+  <si>
+    <t>The Hebrew University, Jerusalem</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/jez.b.21175</t>
+  </si>
+  <si>
+    <t>Phylogenetic relationships of Danio within the order Cypriniformes: a framework for comparative and evolutionary studies
+               of a model species</t>
+  </si>
+  <si>
+    <t>Journal of Experimental Zoology Part B: Molecular and Developmental Evolution</t>
+  </si>
+  <si>
+    <t>Volume 308B, Issue 5</t>
+  </si>
+  <si>
+    <t>First published: 06 June 2007</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/jez.b.21175</t>
+  </si>
+  <si>
+    <t>Richard L. Mayden</t>
+  </si>
+  <si>
+    <t>cypriniformes@gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail address:cypriniformes@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Biology, 3507 Laclede Avenue, Saint Louis University, St. Louis, Missouri
+               63103
+            </t>
+  </si>
+  <si>
+    <t>Kevin L. Tang</t>
+  </si>
+  <si>
+    <t>Kevin W. Conway</t>
+  </si>
+  <si>
+    <t>Jörg Freyhof</t>
+  </si>
+  <si>
+    <t>Leibniz Institute of Freshwater Ecology and Inland Fisheries, Müggelseedamm 310, 12587 Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Sarah Chamberlain</t>
+  </si>
+  <si>
+    <t>Miranda Haskins</t>
+  </si>
+  <si>
+    <t>Leah Schneider</t>
+  </si>
+  <si>
+    <t>Mitchell Sudkamp</t>
+  </si>
+  <si>
+    <t>Robert M. Wood</t>
+  </si>
+  <si>
+    <t>Mary Agnew</t>
+  </si>
+  <si>
+    <t>Angelo Bufalino</t>
+  </si>
+  <si>
+    <t>Zohrah Sulaiman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Biology, Faculty of Science, Universiti Brunei Darussalam, Tungku BE
+               1410, Brunei Darussalam
+            </t>
+  </si>
+  <si>
+    <t>Masaki Miya</t>
+  </si>
+  <si>
+    <t>Department of Zoology, Natural History Museum &amp; Institute, Chiba, 955‐2 Aoba‐cho, Chuo‐ku, Chiba 260‐8682, Japan</t>
+  </si>
+  <si>
+    <t>Kenji Saitoh</t>
+  </si>
+  <si>
+    <t>Tohoku National Fisheries Research Institute, Fisheries Research Agency, 3‐27‐5 Shinhama‐cho, Shiogama‐shi, Miyagi 985‐0001, Japan</t>
+  </si>
+  <si>
+    <t>Shunping He</t>
+  </si>
+  <si>
+    <t>Institute of Hydrobiology, Chinese Academy of Sciences, Wuhan 430072, China</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-8411.1990.tb00177.x</t>
+  </si>
+  <si>
+    <t>Labour Market Trends and Structures in ASEAN and the East Asian NIEs</t>
+  </si>
+  <si>
+    <t>Asian‐Pacific Economic Literature</t>
+  </si>
+  <si>
+    <t>First published: September 1990</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-8411.1990.tb00177.x</t>
+  </si>
+  <si>
+    <t>Chris Manning</t>
+  </si>
+  <si>
+    <t>Flinders University</t>
+  </si>
+  <si>
+    <t>Pang Eng Fong</t>
+  </si>
+  <si>
+    <t>National University of Singapore</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3059.1980.tb01211.x</t>
+  </si>
+  <si>
+    <t>Pirimicarb resistance in the melon and cotton aphid, Aphis gossypii Glover</t>
+  </si>
+  <si>
+    <t>Volume 29, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: December 1980</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3059.1980.tb01211.x</t>
+  </si>
+  <si>
+    <t>C. FURK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Agriculture, Fisheries and Food, Harpenden Laboratory, Hatching Green,
+               Harpenden, Hertfordshire
+            </t>
+  </si>
+  <si>
+    <t>D. F. POWELL</t>
+  </si>
+  <si>
+    <t>S. HEYD</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/tbed.12373</t>
+  </si>
+  <si>
+    <t>Review of the Global Distribution of Foot‐and‐Mouth Disease Virus from 2007 to 2014</t>
+  </si>
+  <si>
+    <t>Transboundary and Emerging Diseases</t>
+  </si>
+  <si>
+    <t>Volume 64, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 20 May 2015</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/tbed.12373</t>
+  </si>
+  <si>
+    <t>B. P. Brito</t>
+  </si>
+  <si>
+    <t>barbara.brito.r@gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail address:barbara.brito.r@gmail.com</t>
+  </si>
+  <si>
+    <t>Agricultural Research Service, U.S. Department of Agriculture, Plum Island Animal Disease CenterGreenport, NY, USA</t>
+  </si>
+  <si>
+    <t>L. L. Rodriguez</t>
+  </si>
+  <si>
+    <t>J. M. Hammond</t>
+  </si>
+  <si>
+    <t>Centre for Animal &amp; Plant Biosecurity, NSW Department of Primary Industries, Elizabeth Macarthur Agricultural InstituteMenangle, NSW, Australia</t>
+  </si>
+  <si>
+    <t>J. Pinto</t>
+  </si>
+  <si>
+    <t>Animal Health Service, Food and Agriculture Organization of the United Nations (FAO)Rome, Italy</t>
+  </si>
+  <si>
+    <t>A. M. Perez</t>
+  </si>
+  <si>
+    <t>Department of Veterinary Population Medicine, College of Veterinary Medicine, University of MinnesotaSaint Paul, MN, USA</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1574-0862.2008.00350.x</t>
+  </si>
+  <si>
+    <t>Food price increases and net food importing countries: lessons from the recent past</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1574-0862.2008.00350.x</t>
+  </si>
+  <si>
+    <t>Francis Ng</t>
+  </si>
+  <si>
+    <t>The World Bank, 1818 H Street, NW, Washington, DC 20433, USA</t>
+  </si>
+  <si>
+    <t>M. Ataman Aksoy</t>
+  </si>
+  <si>
+    <t>ataman.aksoy@gmail.com</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/1467-8411.00003</t>
+  </si>
+  <si>
+    <t>The Environment and Sustainable Development in the Asia‐Pacific: Views and Policies</t>
+  </si>
+  <si>
+    <t>First published: 12 February 2002</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/1467-8411.00003</t>
+  </si>
+  <si>
+    <t>Clem Tisdell</t>
+  </si>
+  <si>
+    <t>The University of Queensland, Brisbane</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1095-8339.1994.tb00433.x</t>
+  </si>
+  <si>
+    <t>Book reviews</t>
+  </si>
+  <si>
+    <t>Botanical Journal of the Linnean Society</t>
+  </si>
+  <si>
+    <t>Volume 116, Issue 3</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1095-8339.1994.tb00433.x</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/1365-2745.13000</t>
+  </si>
+  <si>
+    <t>Resilience of a peatland in Central Sumatra, Indonesia to past anthropogenic disturbance:
+               Improving conservation and restoration designs using palaeoecology</t>
+  </si>
+  <si>
+    <t>Cannot get volume</t>
+  </si>
+  <si>
+    <t>First published: 22 May 2018</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/1365-2745.13000</t>
+  </si>
+  <si>
+    <t>Kartika Anggi Hapsari</t>
+  </si>
+  <si>
+    <t>kartika.hapsari@biologie.uni-goettingen</t>
+  </si>
+  <si>
+    <t>E-mail address:kartika.hapsari@biologie.uni-goettingen.de</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0001-8328-4771</t>
+  </si>
+  <si>
+    <t>Department of Palynology and Climate Dynamics, University of GoettingenGoettingen, Germany</t>
+  </si>
+  <si>
+    <t>Siria Biagioni</t>
+  </si>
+  <si>
+    <t>Tim C. Jennerjahn</t>
+  </si>
+  <si>
+    <t>Department of Biogeochemistry and Geology, Leibniz Centre for Tropical Marine Research (ZMT)Bremen, Germany</t>
+  </si>
+  <si>
+    <t>Peter Reimer</t>
+  </si>
+  <si>
+    <t>Department of Biological Science, Goshen CollegeGoshen, Indiana</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Asmadi Saad</t>
+  </si>
+  <si>
+    <t>Department of Soil Science, University of JambiJambi, Indonesia</t>
+  </si>
+  <si>
+    <t>Supiandi Sabiham</t>
+  </si>
+  <si>
+    <t>Department of Soil Science and Land Resource, Bogor Agriculture University (IPB)Bogor, Indonesia</t>
+  </si>
+  <si>
+    <t>Hermann Behling</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/2016GB005546</t>
+  </si>
+  <si>
+    <t>Global and regional fluxes of carbon from land use and land cover change 1850–2015</t>
+  </si>
+  <si>
+    <t>Global Biogeochemical Cycles</t>
+  </si>
+  <si>
+    <t>Volume 31, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 15 February 2017</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/2016GB005546</t>
+  </si>
+  <si>
+    <t>R. A. Houghton</t>
+  </si>
+  <si>
+    <t>rhoughton@whrc.org</t>
+  </si>
+  <si>
+    <t>E-mail address:rhoughton@whrc.org</t>
+  </si>
+  <si>
+    <t>Woods Hole Research CenterFalmouth, Massachusetts, USA</t>
+  </si>
+  <si>
+    <t>Alexander A. Nassikas</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/2016GB005546%4010.1002/%28ISSN%291944-9224.GLOBALLAND1</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/2016GB005546%4010.1002/%28ISSN%291944-9224.GLOBALLAND1</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1993.tb00053.x</t>
+  </si>
+  <si>
+    <t>FORTY YEARS OF HUMAN GEOGRAPHY IN THE JOURNAL</t>
+  </si>
+  <si>
+    <t>Volume 14, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: December 1994</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9493.1993.tb00053.x</t>
+  </si>
+  <si>
+    <t>K. Raguraman M.A., Ph.D.</t>
+  </si>
+  <si>
+    <t>Shirlena Huang M.A., Ph.D.</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/2014GL062777</t>
+  </si>
+  <si>
+    <t>Accelerated deforestation in the humid tropics from the 1990s to the 2000s</t>
+  </si>
+  <si>
+    <t>Geophysical Research Letters</t>
+  </si>
+  <si>
+    <t>Volume 42, Issue 9</t>
+  </si>
+  <si>
+    <t>First published: 11 February 2015</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/2014GL062777</t>
+  </si>
+  <si>
+    <t>Do‐Hyung Kim</t>
+  </si>
+  <si>
+    <t>rsgis@umd.edu</t>
+  </si>
+  <si>
+    <t>Global Land Cover Facility, Department of Geographical Sciences, University of MarylandCollege Park, Maryland, USA</t>
+  </si>
+  <si>
+    <t>Joseph O. Sexton</t>
+  </si>
+  <si>
+    <t>John R. Townshend</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/2014GL062777%4010.1002/%28ISSN%291944-8007.2015EdHighlights</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1002/2014GL062777%4010.1002/%28ISSN%291944-8007.2015EdHighlights</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1046/j.1440-1703.1998.00263.x</t>
+  </si>
+  <si>
+    <t>Allometry, root/shoot ratio and root architecture in understory saplings of deciduous
+               dicotyledonous trees in central Japan</t>
+  </si>
+  <si>
+    <t>Ecological Research</t>
+  </si>
+  <si>
+    <t>Volume 13, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: 02 February 2005</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1046/j.1440-1703.1998.00263.x</t>
+  </si>
+  <si>
+    <t>KUN‐FANG CAO</t>
+  </si>
+  <si>
+    <t>Department of Forest Science, Faculty of Agriculture, Utsunomiya University, 350 Mine‐machi, Utsunomiya, 321 Japan</t>
+  </si>
+  <si>
+    <t>TATSUHIRO OHKUBO</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1749-124X.2007.00083.x</t>
+  </si>
+  <si>
+    <t>Impact of China‐ASEAN Free Trade Area on China's International Agricultural Trade
+               and Its Regional Development</t>
+  </si>
+  <si>
+    <t>China &amp; World Economy</t>
+  </si>
+  <si>
+    <t>Volume 15, Issue 5</t>
+  </si>
+  <si>
+    <t>First published: 02 October 2007</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1749-124X.2007.00083.x</t>
+  </si>
+  <si>
+    <t>Huanguang Qiu</t>
+  </si>
+  <si>
+    <t>hgqiu.ccap@igsnrr.ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+               Associate professor, Center for Chinese Agricultural Policy, Chinese Academy of Sciences,
+               Beijing, China. Email: hgqiu.ccap@igsnrr.ac.cn
+            </t>
+  </si>
+  <si>
+    <t>Jun Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate professor, Center for Chinese Agricultural Policy, Chinese Academy of Sciences,
+               Beijing, China
+            </t>
+  </si>
+  <si>
+    <t>Jikun Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professor, Center for Chinese Agricultural Policy, Chinese Academy of Sciences, Beijing,
+               China
+            </t>
+  </si>
+  <si>
+    <t>Ruijian Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ph. D candidate, Center for Chinese Agricultural Policy, Chinese Academy of Sciences,
+               Beijing, China.
+            </t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3180.1979.tb01545.x</t>
+  </si>
+  <si>
+    <t>Factors affecting glyphosate activity in Imperata cylindrica (L.) Beauv. and Cyperus rotundus L. II: effect of shade</t>
+  </si>
+  <si>
+    <t>Weed Research</t>
+  </si>
+  <si>
+    <t>Volume 19, Issue 5</t>
+  </si>
+  <si>
+    <t>First published: October 1979</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3180.1979.tb01545.x</t>
+  </si>
+  <si>
+    <t>H. MOOSAVI‐NIA</t>
+  </si>
+  <si>
+    <t>School of Biological Sciences, Brunel University, Uxbridge, Middlesex UB8 3PF, U.K.</t>
+  </si>
+  <si>
+    <t>J. DORE</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1755-263X.2010.00161.x</t>
+  </si>
+  <si>
+    <t>Seeing the fruit for the trees in Borneo</t>
+  </si>
+  <si>
+    <t>Conservation Letters</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 27 December 2010</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1755-263X.2010.00161.x</t>
+  </si>
+  <si>
+    <t>Chris J. Kettle</t>
+  </si>
+  <si>
+    <t>chris.kettle@env.ethz.ch</t>
+  </si>
+  <si>
+    <t>Institute of Terrestrial Ecosystems, ETH Zürich, CHN G 73.1, Universitätstrasse 16, Zurich 8092, Switzerland</t>
+  </si>
+  <si>
+    <t>Jaboury Ghazoul</t>
+  </si>
+  <si>
+    <t>Peter Ashton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Arnold Arboretum of Harvard University, Harvard University Herbaria, 22 Divinity
+               Avenue, Cambridge, MA 02138, USA
+            </t>
+  </si>
+  <si>
+    <t>Charles H. Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Academy of Sciences, Xishuangbanna Tropical Botanic Garden, 666303 Yunnan,
+               P.R. China
+            </t>
+  </si>
+  <si>
+    <t>Department of Biological Sciences, Texas Tech University, Lubbock, TX 79409, USA</t>
+  </si>
+  <si>
+    <t>Lucy Chong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botanical Research Centre (Sarawak Forestry Corporation), KM 20 Borneo Height Road,
+               93250 Kuching, Sarawak, Malaysia
+            </t>
+  </si>
+  <si>
+    <t>Bibian Diway</t>
+  </si>
+  <si>
+    <t>Eny Faridah</t>
+  </si>
+  <si>
+    <t>University of Gadjah Mada, Bulaksumur, Yogyakarta 55281, Indonesia</t>
+  </si>
+  <si>
+    <t>Rhett Harrison</t>
+  </si>
+  <si>
+    <t>Andy Hector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Evolutionary Biology and Environmental Studies, University of Zurich
+               (Irchel), Winterthurerstrasse 190, CH 8057, Switzerland
+            </t>
+  </si>
+  <si>
+    <t>Pete Hollingsworth</t>
+  </si>
+  <si>
+    <t>Royal Botanic Garden Edinburgh, Inverleith Row, Edinburgh EH3 5LR, UK.</t>
+  </si>
+  <si>
+    <t>Eyen Khoo</t>
+  </si>
+  <si>
+    <t>Forest Research Centre, Sabah Forest Department, Sabah, Malaysia</t>
+  </si>
+  <si>
+    <t>Kanehiro Kitayama</t>
+  </si>
+  <si>
+    <t>Graduate School of Agriculture, Kyoto University, Kitashirakawa Oiwake‐cho, Sakyo‐ku, Kyoto 606‐8502, Japan</t>
+  </si>
+  <si>
+    <t>Kuswata Kartawinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO, Jakarta Office, Regional Science Bureau for Asia and the Pacific, Jakarta,
+               Indonesia
+            </t>
+  </si>
+  <si>
+    <t>Andrew J. Marshall</t>
+  </si>
+  <si>
+    <t>Department of Anthropology, Graduate Group in Ecology, Animal Behavior Graduate Group, One Shields Avenue, University of California, Davis, CA 95616‐8522, USA</t>
+  </si>
+  <si>
+    <t>Colin Maycock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Biological and Environmental Sciences, University of Aberdeen, Cruickshank
+               Building, St Machar Drive, Aberdeen, AB24 3UU, UK
+            </t>
+  </si>
+  <si>
+    <t>Satoshi Nanami</t>
+  </si>
+  <si>
+    <t>Graduate School of Science, Osaka City University, Japan</t>
+  </si>
+  <si>
+    <t>Gary Paoli</t>
+  </si>
+  <si>
+    <t>Daemeter Consulting, Jalan Tangkuban Perahu No. 6, Bogor, Indonesia</t>
+  </si>
+  <si>
+    <t>Matthew D. Potts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Environmental Science, Policy &amp; Management, University of California,
+               Berkeley, CA 94720, USA
+            </t>
+  </si>
+  <si>
+    <t>Ismayadi Samsoedin</t>
+  </si>
+  <si>
+    <t>Forestry Research and Development Agency (FORDA), Bogor, Indonesia</t>
+  </si>
+  <si>
+    <t>Douglas Sheil</t>
+  </si>
+  <si>
+    <t>Institute of Tropical Forest Conservation, Box 44, Kabale, Uganda</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ichie Tomoaki</t>
+  </si>
+  <si>
+    <t>International Field Science Course, Faculty of Agriculture, Kochi University, B200, Monobe, Nankoku 783‐8502, Japan</t>
+  </si>
+  <si>
+    <t>Campbell Webb</t>
+  </si>
+  <si>
+    <t>Takuo Yamakura</t>
+  </si>
+  <si>
+    <t>David F.R.P. Burslem</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/btp.12462</t>
+  </si>
+  <si>
+    <t>Impacts of logging roads on tropical forests</t>
+  </si>
+  <si>
+    <t>Volume 49, Issue 5</t>
+  </si>
+  <si>
+    <t>First published: 19 June 2017</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/btp.12462</t>
+  </si>
+  <si>
+    <t>Fritz Kleinschroth</t>
+  </si>
+  <si>
+    <t>fritz.kln@gmail.com</t>
+  </si>
+  <si>
+    <t>E-mail address:fritz.kln@gmail.com</t>
+  </si>
+  <si>
+    <t>http://orcid.org/0000-0002-7614-2123</t>
+  </si>
+  <si>
+    <t>Institute of Terrestrial Ecosystems, Department of Environmental Systems Science, ETH Zurich, Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>Forêts et Sociétés, Département Environnements et Sociétés, CIRAD, Montpellier Cedex 5, France</t>
+  </si>
+  <si>
+    <t>John R. Healey</t>
+  </si>
+  <si>
+    <t>School of Environment, Natural Resources and Geography, Bangor UniversityBangor, Gwynedd, UK</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/ddi.12292</t>
+  </si>
+  <si>
+    <t>The use of species–area relationships to partition the effects of hunting and deforestation
+               on bird extirpations in a fragmented landscape</t>
+  </si>
+  <si>
+    <t>Diversity and Distributions</t>
+  </si>
+  <si>
+    <t>Volume 21, Issue 4</t>
+  </si>
+  <si>
+    <t>First published: 22 December 2014</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/ddi.12292</t>
+  </si>
+  <si>
+    <t>Rachakonda Sreekar</t>
+  </si>
+  <si>
+    <t>rachakonda.sreekar@outlook.com</t>
+  </si>
+  <si>
+    <t>Center for Integrative Conservation, Xishuangbanna Tropical Botanical Garden, Chinese Academy of SciencesMenglun, Yunnan, China</t>
+  </si>
+  <si>
+    <t>University of the Chinese Academy of SciencesBeijing, China</t>
+  </si>
+  <si>
+    <t>Guohualing Huang</t>
+  </si>
+  <si>
+    <t>Jiang‐Bo Zhao</t>
+  </si>
+  <si>
+    <t>Key Laboratory of Tropical Forest Ecology, Xishuangbanna Tropical Botanical Garden, Chinese Academy of SciencesMenglun, Yunnan, China</t>
+  </si>
+  <si>
+    <t>Bonifacio O. Pasion</t>
+  </si>
+  <si>
+    <t>Mika Yasuda</t>
+  </si>
+  <si>
+    <t>Kai Zhang</t>
+  </si>
+  <si>
+    <t>Ecology, Conservation, and Environment Center, State Key Laboratory of Genetic Resources and Evolution, Kunming Institute of Zoology, Chinese Academy of SciencesKunming, China</t>
+  </si>
+  <si>
+    <t>Indika Peabotuwage</t>
+  </si>
+  <si>
+    <t>Ximin Wang</t>
+  </si>
+  <si>
+    <t>Rui‐Chang Quan</t>
+  </si>
+  <si>
+    <t>J. W. Ferry Slik</t>
+  </si>
+  <si>
+    <t>Faculty of Science, Universiti Brunei DarussalamBrunei, Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Richard T. Corlett</t>
+  </si>
+  <si>
+    <t>Eben Goodale</t>
+  </si>
+  <si>
+    <t>College of forestry, Guangxi UniversityNanning, Guangxi, China</t>
+  </si>
+  <si>
+    <t>Rhett D. Harrison</t>
+  </si>
+  <si>
+    <t>Centre for Mountain Ecosystem Studies, Kunming Institute of Botany, Chinese Academy of SciencesKunming, China</t>
+  </si>
+  <si>
+    <t>World Agroforestry Centre, East Asia NodeHeilongtan, Kunming, Yunnan, China</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1467-9701.2008.01135.x</t>
+  </si>
+  <si>
+    <t>Demystify Protectionism: The WTO Trade Policy Review of Japan</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1467-9701.2008.01135.x</t>
+  </si>
+  <si>
+    <t>Fukunari Kimura</t>
+  </si>
+  <si>
+    <t>Keio University, Japan</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1475-4959.2007.00237.x</t>
+  </si>
+  <si>
+    <t>Competition and co‐operation in the semi‐periphery: closer economic partnership and
+               sectoral transformations in Chile and New Zealand</t>
+  </si>
+  <si>
+    <t>Geographical Journal</t>
+  </si>
+  <si>
+    <t>Volume 173, Issue 3</t>
+  </si>
+  <si>
+    <t>First published: 02 August 2007</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1475-4959.2007.00237.x</t>
+  </si>
+  <si>
+    <t>JONATHAN R BARTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Instituto de Estudios Urbanos y Territoriales, Pontificia Universidad Catolica de Chile, El Comendador 1916, Pedro de Valdivia Norte Casilla 16002, Correo 9, Santiago, ChileE‐mail: jbarton@puc.cl</t>
+  </si>
+  <si>
+    <t>ROBERT N GWYNNE</t>
+  </si>
+  <si>
+    <t>r.n.gwynne@bham.ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+School of Geography, Earth and Environmental Sciences, University of Birmingham, Edgbaston, Birmingham B15 2TTE‐mail: r.n.gwynne@bham.ac.uk</t>
+  </si>
+  <si>
+    <t>WARWICK E MURRAY</t>
+  </si>
+  <si>
+    <t>warwick.murray@vuw.ac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+School of Geography, Environment and Earth Sciences, Victoria University of Wellington, PO Box 600, Wellington, New ZealandE‐mail: warwick.murray@vuw.ac.nz</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/j.1365-3180.1979.tb01586.x</t>
+  </si>
+  <si>
+    <t>Factors affecting glyphosate activity in Imperata cylindrica (L) Beau, and Cyperus votundus L. I. Effect of soil moisture</t>
+  </si>
+  <si>
+    <t>Volume 19, Issue 2</t>
+  </si>
+  <si>
+    <t>First published: April 1979</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/j.1365-3180.1979.tb01586.x</t>
+  </si>
+  <si>
+    <t>School of Biological Sciences, Brunel University, Uxbridge, Middlesex UB8 3PE, U.K.</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1111/ijfs.13753</t>
+  </si>
+  <si>
+    <t>Bambangan (Mangifera pajang) kernel fat: a potential new source of cocoa butter alternative</t>
+  </si>
+  <si>
+    <t>International Journal of Food Science &amp; Technology</t>
+  </si>
+  <si>
+    <t>Volume 53, Issue 7</t>
+  </si>
+  <si>
+    <t>First published: 06 March 2018</t>
+  </si>
+  <si>
+    <t>https://nph.onlinelibrary.wiley.com/doi/10.1111/ijfs.13753</t>
   </si>
 </sst>
 </file>
@@ -932,7 +3355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,887 +3452,5684 @@
         <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="H13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
         <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="H21" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
         <v>83</v>
       </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
-        <v>82</v>
-      </c>
       <c r="L21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="H22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s">
         <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="H23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="H24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="H27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I27" t="s">
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
         <v>117</v>
       </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" t="s">
-        <v>116</v>
-      </c>
       <c r="L32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="H33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="H34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" t="s">
         <v>123</v>
-      </c>
-      <c r="L34" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s">
         <v>135</v>
-      </c>
-      <c r="L36" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="H37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
         <v>136</v>
       </c>
-      <c r="I37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>135</v>
-      </c>
-      <c r="L37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I39" t="s">
         <v>26</v>
       </c>
       <c r="J39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
         <v>146</v>
       </c>
-      <c r="I40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" t="s">
-        <v>145</v>
-      </c>
       <c r="L40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
         <v>26</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I44" t="s">
         <v>26</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="H45" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" t="s">
         <v>166</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" t="s">
-        <v>164</v>
-      </c>
-      <c r="L45" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="H46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I46" t="s">
         <v>26</v>
       </c>
       <c r="J46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="H47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I47" t="s">
         <v>26</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="H48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I48" t="s">
         <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
         <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
         <v>179</v>
       </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" t="s">
-        <v>178</v>
-      </c>
       <c r="L51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="H52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="H54" t="s">
+        <v>188</v>
+      </c>
+      <c r="I54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>189</v>
+      </c>
+      <c r="L54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>199</v>
+      </c>
+      <c r="L56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="H57" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>199</v>
+      </c>
+      <c r="L57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="H58" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>199</v>
+      </c>
+      <c r="L58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="H59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>203</v>
+      </c>
+      <c r="L59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" t="s">
+        <v>212</v>
+      </c>
+      <c r="I61" t="s">
+        <v>213</v>
+      </c>
+      <c r="J61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" t="s">
+        <v>215</v>
+      </c>
+      <c r="L61" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" t="s">
+        <v>225</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>226</v>
+      </c>
+      <c r="L63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="H64" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>226</v>
+      </c>
+      <c r="L64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="H65" t="s">
+        <v>228</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" t="s">
+        <v>229</v>
+      </c>
+      <c r="L65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="H66" t="s">
+        <v>231</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>229</v>
+      </c>
+      <c r="L66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="H67" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" t="s">
+        <v>226</v>
+      </c>
+      <c r="L67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="H68" t="s">
+        <v>233</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" t="s">
+        <v>226</v>
+      </c>
+      <c r="L68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70" t="s">
+        <v>241</v>
+      </c>
+      <c r="I70" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" t="s">
+        <v>242</v>
+      </c>
+      <c r="L70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H72" t="s">
+        <v>251</v>
+      </c>
+      <c r="I72" t="s">
+        <v>252</v>
+      </c>
+      <c r="J72" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" t="s">
+        <v>254</v>
+      </c>
+      <c r="L72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="H73" t="s">
+        <v>255</v>
+      </c>
+      <c r="I73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>256</v>
+      </c>
+      <c r="L73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="H74" t="s">
+        <v>257</v>
+      </c>
+      <c r="I74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
+        <v>258</v>
+      </c>
+      <c r="L74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>259</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" t="s">
+        <v>261</v>
+      </c>
+      <c r="D76" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H76" t="s">
+        <v>265</v>
+      </c>
+      <c r="I76" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>266</v>
+      </c>
+      <c r="K76" t="s">
+        <v>267</v>
+      </c>
+      <c r="L76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="H77" t="s">
+        <v>268</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" t="s">
+        <v>267</v>
+      </c>
+      <c r="L77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="H78" t="s">
+        <v>269</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" t="s">
+        <v>270</v>
+      </c>
+      <c r="L78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>273</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" t="s">
+        <v>275</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H80" t="s">
+        <v>277</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" t="s">
+        <v>278</v>
+      </c>
+      <c r="L80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="H81" t="s">
+        <v>279</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
+        <v>280</v>
+      </c>
+      <c r="L81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" t="s">
+        <v>283</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H83" t="s">
+        <v>287</v>
+      </c>
+      <c r="I83" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" t="s">
+        <v>289</v>
+      </c>
+      <c r="L83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" t="s">
+        <v>292</v>
+      </c>
+      <c r="D85" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" t="s">
+        <v>294</v>
+      </c>
+      <c r="F85" t="s">
+        <v>295</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H85" t="s">
+        <v>297</v>
+      </c>
+      <c r="I85" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>299</v>
+      </c>
+      <c r="L85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="H86" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" t="s">
+        <v>298</v>
+      </c>
+      <c r="L86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="H87" t="s">
+        <v>265</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>298</v>
+      </c>
+      <c r="L87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="H88" t="s">
+        <v>301</v>
+      </c>
+      <c r="I88" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" t="s">
+        <v>302</v>
+      </c>
+      <c r="L88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="H89" t="s">
+        <v>121</v>
+      </c>
+      <c r="I89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>303</v>
+      </c>
+      <c r="L89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" t="s">
+        <v>307</v>
+      </c>
+      <c r="E91" t="s">
+        <v>308</v>
+      </c>
+      <c r="F91" t="s">
+        <v>309</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H91" t="s">
+        <v>311</v>
+      </c>
+      <c r="I91" t="s">
+        <v>312</v>
+      </c>
+      <c r="J91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" t="s">
+        <v>278</v>
+      </c>
+      <c r="L91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>316</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" t="s">
+        <v>275</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H93" t="s">
+        <v>318</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>319</v>
+      </c>
+      <c r="L93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" t="s">
+        <v>322</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H95" t="s">
+        <v>324</v>
+      </c>
+      <c r="I95" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" t="s">
+        <v>319</v>
+      </c>
+      <c r="L95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C97" t="s">
+        <v>327</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" t="s">
+        <v>275</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H97" t="s">
+        <v>329</v>
+      </c>
+      <c r="I97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>280</v>
+      </c>
+      <c r="L97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" t="s">
+        <v>332</v>
+      </c>
+      <c r="D99" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" t="s">
+        <v>334</v>
+      </c>
+      <c r="F99" t="s">
+        <v>335</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H99" t="s">
+        <v>337</v>
+      </c>
+      <c r="I99" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>338</v>
+      </c>
+      <c r="L99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>341</v>
+      </c>
+      <c r="D101" t="s">
+        <v>342</v>
+      </c>
+      <c r="E101" t="s">
+        <v>343</v>
+      </c>
+      <c r="F101" t="s">
+        <v>344</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" t="s">
+        <v>255</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" t="s">
+        <v>346</v>
+      </c>
+      <c r="L101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" t="s">
+        <v>350</v>
+      </c>
+      <c r="E103" t="s">
+        <v>351</v>
+      </c>
+      <c r="F103" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H103" t="s">
+        <v>354</v>
+      </c>
+      <c r="I103" t="s">
+        <v>355</v>
+      </c>
+      <c r="J103" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" t="s">
+        <v>357</v>
+      </c>
+      <c r="L103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="H104" t="s">
+        <v>358</v>
+      </c>
+      <c r="I104" t="s">
+        <v>26</v>
+      </c>
+      <c r="J104" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" t="s">
+        <v>357</v>
+      </c>
+      <c r="L104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="H105" t="s">
+        <v>359</v>
+      </c>
+      <c r="I105" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" t="s">
+        <v>360</v>
+      </c>
+      <c r="L105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="H106" t="s">
+        <v>361</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" t="s">
+        <v>360</v>
+      </c>
+      <c r="L106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="H107" t="s">
+        <v>362</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" t="s">
+        <v>360</v>
+      </c>
+      <c r="L107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" t="s">
+        <v>363</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C109" t="s">
+        <v>365</v>
+      </c>
+      <c r="D109" t="s">
+        <v>366</v>
+      </c>
+      <c r="E109" t="s">
+        <v>367</v>
+      </c>
+      <c r="F109" t="s">
+        <v>368</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H109" t="s">
+        <v>370</v>
+      </c>
+      <c r="I109" t="s">
+        <v>371</v>
+      </c>
+      <c r="J109" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" t="s">
+        <v>372</v>
+      </c>
+      <c r="L109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="H110" t="s">
+        <v>373</v>
+      </c>
+      <c r="I110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K110" t="s">
+        <v>374</v>
+      </c>
+      <c r="L110" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" t="s">
+        <v>378</v>
+      </c>
+      <c r="E112" t="s">
+        <v>379</v>
+      </c>
+      <c r="F112" t="s">
+        <v>380</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H112" t="s">
+        <v>382</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="H113" t="s">
+        <v>383</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C115" t="s">
+        <v>386</v>
+      </c>
+      <c r="D115" t="s">
+        <v>387</v>
+      </c>
+      <c r="E115" t="s">
+        <v>388</v>
+      </c>
+      <c r="F115" t="s">
+        <v>389</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H115" t="s">
+        <v>391</v>
+      </c>
+      <c r="I115" t="s">
+        <v>26</v>
+      </c>
+      <c r="J115" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" t="s">
+        <v>392</v>
+      </c>
+      <c r="L115" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>393</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C117" t="s">
+        <v>395</v>
+      </c>
+      <c r="D117" t="s">
+        <v>247</v>
+      </c>
+      <c r="E117" t="s">
+        <v>396</v>
+      </c>
+      <c r="F117" t="s">
+        <v>397</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H117" t="s">
+        <v>265</v>
+      </c>
+      <c r="I117" t="s">
+        <v>266</v>
+      </c>
+      <c r="J117" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" t="s">
+        <v>400</v>
+      </c>
+      <c r="L117" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="H118" t="s">
+        <v>401</v>
+      </c>
+      <c r="I118" t="s">
+        <v>26</v>
+      </c>
+      <c r="J118" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" t="s">
+        <v>400</v>
+      </c>
+      <c r="L118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="H119" t="s">
+        <v>402</v>
+      </c>
+      <c r="I119" t="s">
+        <v>26</v>
+      </c>
+      <c r="J119" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" t="s">
+        <v>400</v>
+      </c>
+      <c r="L119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="H120" t="s">
+        <v>269</v>
+      </c>
+      <c r="I120" t="s">
+        <v>26</v>
+      </c>
+      <c r="J120" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" t="s">
+        <v>403</v>
+      </c>
+      <c r="L120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>404</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" t="s">
+        <v>407</v>
+      </c>
+      <c r="E122" t="s">
+        <v>408</v>
+      </c>
+      <c r="F122" t="s">
+        <v>409</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H122" t="s">
+        <v>411</v>
+      </c>
+      <c r="I122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" t="s">
+        <v>414</v>
+      </c>
+      <c r="L122" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="H123" t="s">
+        <v>415</v>
+      </c>
+      <c r="I123" t="s">
+        <v>416</v>
+      </c>
+      <c r="J123" t="s">
+        <v>27</v>
+      </c>
+      <c r="K123" t="s">
+        <v>414</v>
+      </c>
+      <c r="L123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="H124" t="s">
+        <v>417</v>
+      </c>
+      <c r="I124" t="s">
+        <v>26</v>
+      </c>
+      <c r="J124" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" t="s">
+        <v>412</v>
+      </c>
+      <c r="L124" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>418</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C126" t="s">
+        <v>426</v>
+      </c>
+      <c r="D126" t="s">
+        <v>427</v>
+      </c>
+      <c r="E126" t="s">
+        <v>428</v>
+      </c>
+      <c r="F126" t="s">
+        <v>429</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H126" t="s">
+        <v>431</v>
+      </c>
+      <c r="I126" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" t="s">
+        <v>27</v>
+      </c>
+      <c r="K126" t="s">
+        <v>432</v>
+      </c>
+      <c r="L126" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="H127" t="s">
+        <v>433</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" t="s">
+        <v>432</v>
+      </c>
+      <c r="L127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>434</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C129" t="s">
+        <v>436</v>
+      </c>
+      <c r="D129" t="s">
+        <v>437</v>
+      </c>
+      <c r="E129" t="s">
+        <v>438</v>
+      </c>
+      <c r="F129" t="s">
+        <v>439</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H129" t="s">
+        <v>441</v>
+      </c>
+      <c r="I129" t="s">
+        <v>442</v>
+      </c>
+      <c r="J129" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129" t="s">
+        <v>443</v>
+      </c>
+      <c r="L129" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>445</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C131" t="s">
+        <v>447</v>
+      </c>
+      <c r="D131" t="s">
+        <v>448</v>
+      </c>
+      <c r="E131" t="s">
+        <v>449</v>
+      </c>
+      <c r="F131" t="s">
+        <v>450</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H131" t="s">
+        <v>452</v>
+      </c>
+      <c r="I131" t="s">
+        <v>453</v>
+      </c>
+      <c r="J131" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" t="s">
+        <v>96</v>
+      </c>
+      <c r="L131" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" t="s">
+        <v>456</v>
+      </c>
+      <c r="D133" t="s">
+        <v>457</v>
+      </c>
+      <c r="E133" t="s">
+        <v>458</v>
+      </c>
+      <c r="F133" t="s">
+        <v>459</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H133" t="s">
+        <v>461</v>
+      </c>
+      <c r="I133" t="s">
+        <v>462</v>
+      </c>
+      <c r="J133" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133" t="s">
+        <v>463</v>
+      </c>
+      <c r="L133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="H134" t="s">
+        <v>464</v>
+      </c>
+      <c r="I134" t="s">
+        <v>26</v>
+      </c>
+      <c r="J134" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134" t="s">
+        <v>465</v>
+      </c>
+      <c r="L134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="H135" t="s">
+        <v>466</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" t="s">
+        <v>463</v>
+      </c>
+      <c r="L135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="H136" t="s">
+        <v>467</v>
+      </c>
+      <c r="I136" t="s">
+        <v>26</v>
+      </c>
+      <c r="J136" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" t="s">
+        <v>465</v>
+      </c>
+      <c r="L136" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="H137" t="s">
+        <v>468</v>
+      </c>
+      <c r="I137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137" t="s">
+        <v>469</v>
+      </c>
+      <c r="L137" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="H138" t="s">
+        <v>470</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
+      </c>
+      <c r="J138" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138" t="s">
+        <v>471</v>
+      </c>
+      <c r="L138" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="H139" t="s">
+        <v>472</v>
+      </c>
+      <c r="I139" t="s">
+        <v>26</v>
+      </c>
+      <c r="J139" t="s">
+        <v>27</v>
+      </c>
+      <c r="K139" t="s">
+        <v>473</v>
+      </c>
+      <c r="L139" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="H140" t="s">
+        <v>475</v>
+      </c>
+      <c r="I140" t="s">
+        <v>26</v>
+      </c>
+      <c r="J140" t="s">
+        <v>27</v>
+      </c>
+      <c r="K140" t="s">
+        <v>476</v>
+      </c>
+      <c r="L140" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="H141" t="s">
+        <v>477</v>
+      </c>
+      <c r="I141" t="s">
+        <v>26</v>
+      </c>
+      <c r="J141" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141" t="s">
+        <v>478</v>
+      </c>
+      <c r="L141" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="H142" t="s">
+        <v>479</v>
+      </c>
+      <c r="I142" t="s">
+        <v>26</v>
+      </c>
+      <c r="J142" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" t="s">
+        <v>480</v>
+      </c>
+      <c r="L142" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="H143" t="s">
+        <v>482</v>
+      </c>
+      <c r="I143" t="s">
+        <v>26</v>
+      </c>
+      <c r="J143" t="s">
+        <v>27</v>
+      </c>
+      <c r="K143" t="s">
+        <v>483</v>
+      </c>
+      <c r="L143" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="H144" t="s">
+        <v>484</v>
+      </c>
+      <c r="I144" t="s">
+        <v>26</v>
+      </c>
+      <c r="J144" t="s">
+        <v>27</v>
+      </c>
+      <c r="K144" t="s">
+        <v>486</v>
+      </c>
+      <c r="L144" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="H145" t="s">
+        <v>488</v>
+      </c>
+      <c r="I145" t="s">
+        <v>26</v>
+      </c>
+      <c r="J145" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" t="s">
+        <v>490</v>
+      </c>
+      <c r="L145" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="H146" t="s">
+        <v>492</v>
+      </c>
+      <c r="I146" t="s">
+        <v>26</v>
+      </c>
+      <c r="J146" t="s">
+        <v>27</v>
+      </c>
+      <c r="K146" t="s">
+        <v>493</v>
+      </c>
+      <c r="L146" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>495</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" t="s">
+        <v>497</v>
+      </c>
+      <c r="D148" t="s">
+        <v>498</v>
+      </c>
+      <c r="E148" t="s">
+        <v>499</v>
+      </c>
+      <c r="F148" t="s">
+        <v>500</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H148" t="s">
+        <v>502</v>
+      </c>
+      <c r="I148" t="s">
+        <v>503</v>
+      </c>
+      <c r="J148" t="s">
+        <v>27</v>
+      </c>
+      <c r="K148" t="s">
+        <v>505</v>
+      </c>
+      <c r="L148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="H149" t="s">
+        <v>506</v>
+      </c>
+      <c r="I149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J149" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149" t="s">
+        <v>507</v>
+      </c>
+      <c r="L149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="H150" t="s">
+        <v>508</v>
+      </c>
+      <c r="I150" t="s">
+        <v>26</v>
+      </c>
+      <c r="J150" t="s">
+        <v>27</v>
+      </c>
+      <c r="K150" t="s">
+        <v>505</v>
+      </c>
+      <c r="L150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="H151" t="s">
+        <v>509</v>
+      </c>
+      <c r="I151" t="s">
+        <v>26</v>
+      </c>
+      <c r="J151" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151" t="s">
+        <v>505</v>
+      </c>
+      <c r="L151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="H152" t="s">
+        <v>510</v>
+      </c>
+      <c r="I152" t="s">
+        <v>26</v>
+      </c>
+      <c r="J152" t="s">
+        <v>27</v>
+      </c>
+      <c r="K152" t="s">
+        <v>511</v>
+      </c>
+      <c r="L152" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="H153" t="s">
+        <v>513</v>
+      </c>
+      <c r="I153" t="s">
+        <v>26</v>
+      </c>
+      <c r="J153" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153" t="s">
+        <v>514</v>
+      </c>
+      <c r="L153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="H154" t="s">
+        <v>269</v>
+      </c>
+      <c r="I154" t="s">
+        <v>26</v>
+      </c>
+      <c r="J154" t="s">
+        <v>27</v>
+      </c>
+      <c r="K154" t="s">
+        <v>515</v>
+      </c>
+      <c r="L154" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="H155" t="s">
+        <v>516</v>
+      </c>
+      <c r="I155" t="s">
+        <v>26</v>
+      </c>
+      <c r="J155" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155" t="s">
+        <v>517</v>
+      </c>
+      <c r="L155" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="H156" t="s">
+        <v>401</v>
+      </c>
+      <c r="I156" t="s">
+        <v>26</v>
+      </c>
+      <c r="J156" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156" t="s">
+        <v>519</v>
+      </c>
+      <c r="L156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="H157" t="s">
+        <v>520</v>
+      </c>
+      <c r="I157" t="s">
+        <v>26</v>
+      </c>
+      <c r="J157" t="s">
+        <v>27</v>
+      </c>
+      <c r="K157" t="s">
+        <v>505</v>
+      </c>
+      <c r="L157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="H158" t="s">
+        <v>521</v>
+      </c>
+      <c r="I158" t="s">
+        <v>26</v>
+      </c>
+      <c r="J158" t="s">
+        <v>27</v>
+      </c>
+      <c r="K158" t="s">
+        <v>522</v>
+      </c>
+      <c r="L158" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="H159" t="s">
+        <v>523</v>
+      </c>
+      <c r="I159" t="s">
+        <v>26</v>
+      </c>
+      <c r="J159" t="s">
+        <v>27</v>
+      </c>
+      <c r="K159" t="s">
+        <v>524</v>
+      </c>
+      <c r="L159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="H160" t="s">
+        <v>525</v>
+      </c>
+      <c r="I160" t="s">
+        <v>26</v>
+      </c>
+      <c r="J160" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160" t="s">
+        <v>526</v>
+      </c>
+      <c r="L160" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="H161" t="s">
+        <v>528</v>
+      </c>
+      <c r="I161" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161" t="s">
+        <v>526</v>
+      </c>
+      <c r="L161" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="H162" t="s">
+        <v>529</v>
+      </c>
+      <c r="I162" t="s">
+        <v>26</v>
+      </c>
+      <c r="J162" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162" t="s">
+        <v>530</v>
+      </c>
+      <c r="L162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="H163" t="s">
+        <v>531</v>
+      </c>
+      <c r="I163" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" t="s">
+        <v>27</v>
+      </c>
+      <c r="K163" t="s">
+        <v>532</v>
+      </c>
+      <c r="L163" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="H164" t="s">
+        <v>534</v>
+      </c>
+      <c r="I164" t="s">
+        <v>26</v>
+      </c>
+      <c r="J164" t="s">
+        <v>27</v>
+      </c>
+      <c r="K164" t="s">
+        <v>536</v>
+      </c>
+      <c r="L164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="H165" t="s">
+        <v>537</v>
+      </c>
+      <c r="I165" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" t="s">
+        <v>27</v>
+      </c>
+      <c r="K165" t="s">
+        <v>505</v>
+      </c>
+      <c r="L165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>538</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" t="s">
+        <v>540</v>
+      </c>
+      <c r="D167" t="s">
+        <v>541</v>
+      </c>
+      <c r="E167" t="s">
+        <v>542</v>
+      </c>
+      <c r="F167" t="s">
+        <v>543</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H167" t="s">
+        <v>545</v>
+      </c>
+      <c r="I167" t="s">
+        <v>26</v>
+      </c>
+      <c r="J167" t="s">
+        <v>27</v>
+      </c>
+      <c r="K167" t="s">
+        <v>546</v>
+      </c>
+      <c r="L167" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="H168" t="s">
+        <v>548</v>
+      </c>
+      <c r="I168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168" t="s">
+        <v>549</v>
+      </c>
+      <c r="L168" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="H169" t="s">
+        <v>550</v>
+      </c>
+      <c r="I169" t="s">
+        <v>26</v>
+      </c>
+      <c r="J169" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169" t="s">
+        <v>551</v>
+      </c>
+      <c r="L169" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="H170" t="s">
+        <v>552</v>
+      </c>
+      <c r="I170" t="s">
+        <v>26</v>
+      </c>
+      <c r="J170" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170" t="s">
+        <v>549</v>
+      </c>
+      <c r="L170" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="H171" t="s">
+        <v>553</v>
+      </c>
+      <c r="I171" t="s">
+        <v>26</v>
+      </c>
+      <c r="J171" t="s">
+        <v>27</v>
+      </c>
+      <c r="K171" t="s">
+        <v>554</v>
+      </c>
+      <c r="L171" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="H172" t="s">
+        <v>555</v>
+      </c>
+      <c r="I172" t="s">
+        <v>26</v>
+      </c>
+      <c r="J172" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" t="s">
+        <v>556</v>
+      </c>
+      <c r="L172" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>557</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" t="s">
+        <v>559</v>
+      </c>
+      <c r="D174" t="s">
+        <v>21</v>
+      </c>
+      <c r="E174" t="s">
+        <v>560</v>
+      </c>
+      <c r="F174" t="s">
+        <v>561</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H174" t="s">
+        <v>563</v>
+      </c>
+      <c r="I174" t="s">
+        <v>564</v>
+      </c>
+      <c r="J174" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" t="s">
+        <v>566</v>
+      </c>
+      <c r="L174" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="H175" t="s">
+        <v>567</v>
+      </c>
+      <c r="I175" t="s">
+        <v>26</v>
+      </c>
+      <c r="J175" t="s">
+        <v>27</v>
+      </c>
+      <c r="K175" t="s">
+        <v>568</v>
+      </c>
+      <c r="L175" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="H176" t="s">
+        <v>570</v>
+      </c>
+      <c r="I176" t="s">
+        <v>26</v>
+      </c>
+      <c r="J176" t="s">
+        <v>27</v>
+      </c>
+      <c r="K176" t="s">
+        <v>571</v>
+      </c>
+      <c r="L176" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="H177" t="s">
+        <v>573</v>
+      </c>
+      <c r="I177" t="s">
+        <v>26</v>
+      </c>
+      <c r="J177" t="s">
+        <v>27</v>
+      </c>
+      <c r="K177" t="s">
+        <v>574</v>
+      </c>
+      <c r="L177" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="H178" t="s">
+        <v>575</v>
+      </c>
+      <c r="I178" t="s">
+        <v>26</v>
+      </c>
+      <c r="J178" t="s">
+        <v>27</v>
+      </c>
+      <c r="K178" t="s">
+        <v>576</v>
+      </c>
+      <c r="L178" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="H179" t="s">
+        <v>578</v>
+      </c>
+      <c r="I179" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179" t="s">
+        <v>579</v>
+      </c>
+      <c r="L179" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>581</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C181" t="s">
+        <v>583</v>
+      </c>
+      <c r="D181" t="s">
+        <v>584</v>
+      </c>
+      <c r="E181" t="s">
+        <v>585</v>
+      </c>
+      <c r="F181" t="s">
+        <v>586</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H181" t="s">
+        <v>588</v>
+      </c>
+      <c r="I181" t="s">
+        <v>589</v>
+      </c>
+      <c r="J181" t="s">
+        <v>27</v>
+      </c>
+      <c r="K181" t="s">
+        <v>590</v>
+      </c>
+      <c r="L181" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="H182" t="s">
+        <v>591</v>
+      </c>
+      <c r="I182" t="s">
+        <v>26</v>
+      </c>
+      <c r="J182" t="s">
+        <v>27</v>
+      </c>
+      <c r="K182" t="s">
+        <v>590</v>
+      </c>
+      <c r="L182" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" t="s">
+        <v>592</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C184" t="s">
+        <v>594</v>
+      </c>
+      <c r="D184" t="s">
+        <v>595</v>
+      </c>
+      <c r="E184" t="s">
+        <v>596</v>
+      </c>
+      <c r="F184" t="s">
+        <v>597</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H184" t="s">
+        <v>599</v>
+      </c>
+      <c r="I184" t="s">
+        <v>26</v>
+      </c>
+      <c r="J184" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" t="s">
+        <v>600</v>
+      </c>
+      <c r="L184" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="H185" t="s">
+        <v>601</v>
+      </c>
+      <c r="I185" t="s">
+        <v>26</v>
+      </c>
+      <c r="J185" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" t="s">
+        <v>602</v>
+      </c>
+      <c r="L185" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" t="s">
+        <v>603</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C187" t="s">
+        <v>605</v>
+      </c>
+      <c r="D187" t="s">
+        <v>606</v>
+      </c>
+      <c r="E187" t="s">
+        <v>607</v>
+      </c>
+      <c r="F187" t="s">
+        <v>608</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>610</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C188" t="s">
+        <v>612</v>
+      </c>
+      <c r="D188" t="s">
+        <v>421</v>
+      </c>
+      <c r="E188" t="s">
+        <v>613</v>
+      </c>
+      <c r="F188" t="s">
+        <v>614</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="H188" t="s">
+        <v>616</v>
+      </c>
+      <c r="I188" t="s">
+        <v>26</v>
+      </c>
+      <c r="J188" t="s">
+        <v>27</v>
+      </c>
+      <c r="K188" t="s">
+        <v>617</v>
+      </c>
+      <c r="L188" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="H189" t="s">
+        <v>618</v>
+      </c>
+      <c r="I189" t="s">
+        <v>619</v>
+      </c>
+      <c r="J189" t="s">
+        <v>27</v>
+      </c>
+      <c r="K189" t="s">
+        <v>621</v>
+      </c>
+      <c r="L189" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="H190" t="s">
+        <v>622</v>
+      </c>
+      <c r="I190" t="s">
+        <v>26</v>
+      </c>
+      <c r="J190" t="s">
+        <v>27</v>
+      </c>
+      <c r="K190" t="s">
+        <v>623</v>
+      </c>
+      <c r="L190" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>625</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C192" t="s">
+        <v>627</v>
+      </c>
+      <c r="D192" t="s">
+        <v>628</v>
+      </c>
+      <c r="E192" t="s">
+        <v>629</v>
+      </c>
+      <c r="F192" t="s">
+        <v>630</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H192" t="s">
+        <v>632</v>
+      </c>
+      <c r="I192" t="s">
+        <v>633</v>
+      </c>
+      <c r="J192" t="s">
+        <v>27</v>
+      </c>
+      <c r="K192" t="s">
+        <v>634</v>
+      </c>
+      <c r="L192" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" t="s">
+        <v>636</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C194" t="s">
+        <v>638</v>
+      </c>
+      <c r="D194" t="s">
+        <v>407</v>
+      </c>
+      <c r="E194" t="s">
+        <v>639</v>
+      </c>
+      <c r="F194" t="s">
+        <v>640</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H194" t="s">
+        <v>642</v>
+      </c>
+      <c r="I194" t="s">
+        <v>26</v>
+      </c>
+      <c r="J194" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194" t="s">
+        <v>643</v>
+      </c>
+      <c r="L194" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="H195" t="s">
+        <v>644</v>
+      </c>
+      <c r="I195" t="s">
+        <v>26</v>
+      </c>
+      <c r="J195" t="s">
+        <v>27</v>
+      </c>
+      <c r="K195" t="s">
+        <v>645</v>
+      </c>
+      <c r="L195" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>646</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C197" t="s">
+        <v>648</v>
+      </c>
+      <c r="D197" t="s">
+        <v>649</v>
+      </c>
+      <c r="E197" t="s">
+        <v>650</v>
+      </c>
+      <c r="F197" t="s">
+        <v>651</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H197" t="s">
+        <v>653</v>
+      </c>
+      <c r="I197" t="s">
+        <v>26</v>
+      </c>
+      <c r="J197" t="s">
+        <v>27</v>
+      </c>
+      <c r="K197" t="s">
+        <v>654</v>
+      </c>
+      <c r="L197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" t="s">
+        <v>655</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C199" t="s">
+        <v>657</v>
+      </c>
+      <c r="D199" t="s">
+        <v>658</v>
+      </c>
+      <c r="E199" t="s">
+        <v>659</v>
+      </c>
+      <c r="F199" t="s">
+        <v>660</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H199" t="s">
+        <v>662</v>
+      </c>
+      <c r="I199" t="s">
+        <v>663</v>
+      </c>
+      <c r="J199" t="s">
+        <v>27</v>
+      </c>
+      <c r="K199" t="s">
+        <v>665</v>
+      </c>
+      <c r="L199" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="H200" t="s">
+        <v>666</v>
+      </c>
+      <c r="I200" t="s">
+        <v>26</v>
+      </c>
+      <c r="J200" t="s">
+        <v>27</v>
+      </c>
+      <c r="K200" t="s">
+        <v>665</v>
+      </c>
+      <c r="L200" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="H201" t="s">
+        <v>667</v>
+      </c>
+      <c r="I201" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" t="s">
+        <v>27</v>
+      </c>
+      <c r="K201" t="s">
+        <v>665</v>
+      </c>
+      <c r="L201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="H202" t="s">
+        <v>668</v>
+      </c>
+      <c r="I202" t="s">
+        <v>26</v>
+      </c>
+      <c r="J202" t="s">
+        <v>27</v>
+      </c>
+      <c r="K202" t="s">
+        <v>669</v>
+      </c>
+      <c r="L202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="H203" t="s">
+        <v>670</v>
+      </c>
+      <c r="I203" t="s">
+        <v>26</v>
+      </c>
+      <c r="J203" t="s">
+        <v>27</v>
+      </c>
+      <c r="K203" t="s">
+        <v>665</v>
+      </c>
+      <c r="L203" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="H204" t="s">
+        <v>671</v>
+      </c>
+      <c r="I204" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" t="s">
+        <v>27</v>
+      </c>
+      <c r="K204" t="s">
+        <v>665</v>
+      </c>
+      <c r="L204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="H205" t="s">
+        <v>672</v>
+      </c>
+      <c r="I205" t="s">
+        <v>26</v>
+      </c>
+      <c r="J205" t="s">
+        <v>27</v>
+      </c>
+      <c r="K205" t="s">
+        <v>665</v>
+      </c>
+      <c r="L205" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="H206" t="s">
+        <v>673</v>
+      </c>
+      <c r="I206" t="s">
+        <v>26</v>
+      </c>
+      <c r="J206" t="s">
+        <v>27</v>
+      </c>
+      <c r="K206" t="s">
+        <v>665</v>
+      </c>
+      <c r="L206" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="H207" t="s">
+        <v>674</v>
+      </c>
+      <c r="I207" t="s">
+        <v>26</v>
+      </c>
+      <c r="J207" t="s">
+        <v>27</v>
+      </c>
+      <c r="K207" t="s">
+        <v>665</v>
+      </c>
+      <c r="L207" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="H208" t="s">
+        <v>675</v>
+      </c>
+      <c r="I208" t="s">
+        <v>26</v>
+      </c>
+      <c r="J208" t="s">
+        <v>27</v>
+      </c>
+      <c r="K208" t="s">
+        <v>665</v>
+      </c>
+      <c r="L208" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="H209" t="s">
+        <v>676</v>
+      </c>
+      <c r="I209" t="s">
+        <v>26</v>
+      </c>
+      <c r="J209" t="s">
+        <v>27</v>
+      </c>
+      <c r="K209" t="s">
+        <v>665</v>
+      </c>
+      <c r="L209" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="H210" t="s">
+        <v>677</v>
+      </c>
+      <c r="I210" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" t="s">
+        <v>27</v>
+      </c>
+      <c r="K210" t="s">
+        <v>678</v>
+      </c>
+      <c r="L210" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="H211" t="s">
+        <v>679</v>
+      </c>
+      <c r="I211" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" t="s">
+        <v>27</v>
+      </c>
+      <c r="K211" t="s">
+        <v>680</v>
+      </c>
+      <c r="L211" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="H212" t="s">
+        <v>681</v>
+      </c>
+      <c r="I212" t="s">
+        <v>26</v>
+      </c>
+      <c r="J212" t="s">
+        <v>27</v>
+      </c>
+      <c r="K212" t="s">
+        <v>682</v>
+      </c>
+      <c r="L212" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="H213" t="s">
+        <v>683</v>
+      </c>
+      <c r="I213" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" t="s">
+        <v>27</v>
+      </c>
+      <c r="K213" t="s">
+        <v>684</v>
+      </c>
+      <c r="L213" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
+        <v>685</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C215" t="s">
+        <v>687</v>
+      </c>
+      <c r="D215" t="s">
+        <v>688</v>
+      </c>
+      <c r="E215" t="s">
+        <v>438</v>
+      </c>
+      <c r="F215" t="s">
+        <v>689</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H215" t="s">
+        <v>691</v>
+      </c>
+      <c r="I215" t="s">
+        <v>26</v>
+      </c>
+      <c r="J215" t="s">
+        <v>27</v>
+      </c>
+      <c r="K215" t="s">
+        <v>692</v>
+      </c>
+      <c r="L215" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="H216" t="s">
+        <v>693</v>
+      </c>
+      <c r="I216" t="s">
+        <v>26</v>
+      </c>
+      <c r="J216" t="s">
+        <v>27</v>
+      </c>
+      <c r="K216" t="s">
+        <v>694</v>
+      </c>
+      <c r="L216" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" t="s">
+        <v>695</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C218" t="s">
+        <v>697</v>
+      </c>
+      <c r="D218" t="s">
+        <v>194</v>
+      </c>
+      <c r="E218" t="s">
+        <v>698</v>
+      </c>
+      <c r="F218" t="s">
+        <v>699</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="H218" t="s">
+        <v>701</v>
+      </c>
+      <c r="I218" t="s">
+        <v>26</v>
+      </c>
+      <c r="J218" t="s">
+        <v>27</v>
+      </c>
+      <c r="K218" t="s">
+        <v>702</v>
+      </c>
+      <c r="L218" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="H219" t="s">
+        <v>703</v>
+      </c>
+      <c r="I219" t="s">
+        <v>26</v>
+      </c>
+      <c r="J219" t="s">
+        <v>27</v>
+      </c>
+      <c r="K219" t="s">
+        <v>702</v>
+      </c>
+      <c r="L219" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="H220" t="s">
+        <v>704</v>
+      </c>
+      <c r="I220" t="s">
+        <v>26</v>
+      </c>
+      <c r="J220" t="s">
+        <v>27</v>
+      </c>
+      <c r="K220" t="s">
+        <v>702</v>
+      </c>
+      <c r="L220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" t="s">
+        <v>705</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C222" t="s">
+        <v>707</v>
+      </c>
+      <c r="D222" t="s">
+        <v>708</v>
+      </c>
+      <c r="E222" t="s">
+        <v>709</v>
+      </c>
+      <c r="F222" t="s">
+        <v>710</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="H222" t="s">
+        <v>712</v>
+      </c>
+      <c r="I222" t="s">
+        <v>713</v>
+      </c>
+      <c r="J222" t="s">
+        <v>27</v>
+      </c>
+      <c r="K222" t="s">
+        <v>715</v>
+      </c>
+      <c r="L222" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="H223" t="s">
+        <v>716</v>
+      </c>
+      <c r="I223" t="s">
+        <v>26</v>
+      </c>
+      <c r="J223" t="s">
+        <v>27</v>
+      </c>
+      <c r="K223" t="s">
+        <v>715</v>
+      </c>
+      <c r="L223" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="H224" t="s">
+        <v>717</v>
+      </c>
+      <c r="I224" t="s">
+        <v>26</v>
+      </c>
+      <c r="J224" t="s">
+        <v>27</v>
+      </c>
+      <c r="K224" t="s">
+        <v>718</v>
+      </c>
+      <c r="L224" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="H225" t="s">
+        <v>719</v>
+      </c>
+      <c r="I225" t="s">
+        <v>26</v>
+      </c>
+      <c r="J225" t="s">
+        <v>27</v>
+      </c>
+      <c r="K225" t="s">
+        <v>720</v>
+      </c>
+      <c r="L225" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="H226" t="s">
+        <v>721</v>
+      </c>
+      <c r="I226" t="s">
+        <v>26</v>
+      </c>
+      <c r="J226" t="s">
+        <v>27</v>
+      </c>
+      <c r="K226" t="s">
+        <v>722</v>
+      </c>
+      <c r="L226" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" t="s">
+        <v>723</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C228" t="s">
+        <v>725</v>
+      </c>
+      <c r="D228" t="s">
+        <v>421</v>
+      </c>
+      <c r="E228" t="s">
+        <v>422</v>
+      </c>
+      <c r="F228" t="s">
+        <v>423</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H228" t="s">
+        <v>727</v>
+      </c>
+      <c r="I228" t="s">
+        <v>26</v>
+      </c>
+      <c r="J228" t="s">
+        <v>27</v>
+      </c>
+      <c r="K228" t="s">
+        <v>728</v>
+      </c>
+      <c r="L228" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="H229" t="s">
+        <v>729</v>
+      </c>
+      <c r="I229" t="s">
+        <v>730</v>
+      </c>
+      <c r="J229" t="s">
+        <v>27</v>
+      </c>
+      <c r="K229" t="s">
+        <v>728</v>
+      </c>
+      <c r="L229" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" t="s">
+        <v>731</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C231" t="s">
+        <v>733</v>
+      </c>
+      <c r="D231" t="s">
+        <v>688</v>
+      </c>
+      <c r="E231" t="s">
+        <v>103</v>
+      </c>
+      <c r="F231" t="s">
+        <v>734</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H231" t="s">
+        <v>736</v>
+      </c>
+      <c r="I231" t="s">
+        <v>26</v>
+      </c>
+      <c r="J231" t="s">
+        <v>27</v>
+      </c>
+      <c r="K231" t="s">
+        <v>737</v>
+      </c>
+      <c r="L231" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" t="s">
+        <v>738</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C233" t="s">
+        <v>740</v>
+      </c>
+      <c r="D233" t="s">
+        <v>741</v>
+      </c>
+      <c r="E233" t="s">
+        <v>742</v>
+      </c>
+      <c r="F233" t="s">
+        <v>143</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" t="s">
+        <v>744</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C234" t="s">
+        <v>746</v>
+      </c>
+      <c r="D234" t="s">
+        <v>498</v>
+      </c>
+      <c r="E234" t="s">
+        <v>747</v>
+      </c>
+      <c r="F234" t="s">
+        <v>748</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H234" t="s">
+        <v>750</v>
+      </c>
+      <c r="I234" t="s">
+        <v>751</v>
+      </c>
+      <c r="J234" t="s">
+        <v>27</v>
+      </c>
+      <c r="K234" t="s">
+        <v>754</v>
+      </c>
+      <c r="L234" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="H235" t="s">
+        <v>755</v>
+      </c>
+      <c r="I235" t="s">
+        <v>26</v>
+      </c>
+      <c r="J235" t="s">
+        <v>27</v>
+      </c>
+      <c r="K235" t="s">
+        <v>754</v>
+      </c>
+      <c r="L235" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="H236" t="s">
+        <v>756</v>
+      </c>
+      <c r="I236" t="s">
+        <v>26</v>
+      </c>
+      <c r="J236" t="s">
+        <v>27</v>
+      </c>
+      <c r="K236" t="s">
+        <v>757</v>
+      </c>
+      <c r="L236" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="H237" t="s">
+        <v>758</v>
+      </c>
+      <c r="I237" t="s">
+        <v>26</v>
+      </c>
+      <c r="J237" t="s">
+        <v>27</v>
+      </c>
+      <c r="K237" t="s">
+        <v>759</v>
+      </c>
+      <c r="L237" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="H238" t="s">
+        <v>761</v>
+      </c>
+      <c r="I238" t="s">
+        <v>26</v>
+      </c>
+      <c r="J238" t="s">
+        <v>27</v>
+      </c>
+      <c r="K238" t="s">
+        <v>762</v>
+      </c>
+      <c r="L238" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="H239" t="s">
+        <v>763</v>
+      </c>
+      <c r="I239" t="s">
+        <v>26</v>
+      </c>
+      <c r="J239" t="s">
+        <v>27</v>
+      </c>
+      <c r="K239" t="s">
+        <v>764</v>
+      </c>
+      <c r="L239" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="H240" t="s">
+        <v>765</v>
+      </c>
+      <c r="I240" t="s">
+        <v>26</v>
+      </c>
+      <c r="J240" t="s">
+        <v>27</v>
+      </c>
+      <c r="K240" t="s">
+        <v>754</v>
+      </c>
+      <c r="L240" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" t="s">
+        <v>766</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C242" t="s">
+        <v>768</v>
+      </c>
+      <c r="D242" t="s">
+        <v>769</v>
+      </c>
+      <c r="E242" t="s">
+        <v>770</v>
+      </c>
+      <c r="F242" t="s">
+        <v>771</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H242" t="s">
+        <v>773</v>
+      </c>
+      <c r="I242" t="s">
+        <v>774</v>
+      </c>
+      <c r="J242" t="s">
+        <v>27</v>
+      </c>
+      <c r="K242" t="s">
+        <v>776</v>
+      </c>
+      <c r="L242" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="H243" t="s">
+        <v>777</v>
+      </c>
+      <c r="I243" t="s">
+        <v>26</v>
+      </c>
+      <c r="J243" t="s">
+        <v>27</v>
+      </c>
+      <c r="K243" t="s">
+        <v>776</v>
+      </c>
+      <c r="L243" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" t="s">
+        <v>778</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C245" t="s">
+        <v>768</v>
+      </c>
+      <c r="D245" t="s">
+        <v>769</v>
+      </c>
+      <c r="E245" t="s">
+        <v>747</v>
+      </c>
+      <c r="F245" t="s">
+        <v>771</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H245" t="s">
+        <v>773</v>
+      </c>
+      <c r="I245" t="s">
+        <v>774</v>
+      </c>
+      <c r="J245" t="s">
+        <v>27</v>
+      </c>
+      <c r="K245" t="s">
+        <v>776</v>
+      </c>
+      <c r="L245" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="H246" t="s">
+        <v>777</v>
+      </c>
+      <c r="I246" t="s">
+        <v>26</v>
+      </c>
+      <c r="J246" t="s">
+        <v>27</v>
+      </c>
+      <c r="K246" t="s">
+        <v>776</v>
+      </c>
+      <c r="L246" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" t="s">
+        <v>781</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C248" t="s">
+        <v>783</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" t="s">
+        <v>784</v>
+      </c>
+      <c r="F248" t="s">
+        <v>785</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H248" t="s">
+        <v>787</v>
+      </c>
+      <c r="I248" t="s">
+        <v>26</v>
+      </c>
+      <c r="J248" t="s">
+        <v>27</v>
+      </c>
+      <c r="K248" t="s">
+        <v>694</v>
+      </c>
+      <c r="L248" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="H249" t="s">
+        <v>788</v>
+      </c>
+      <c r="I249" t="s">
+        <v>26</v>
+      </c>
+      <c r="J249" t="s">
+        <v>27</v>
+      </c>
+      <c r="K249" t="s">
+        <v>694</v>
+      </c>
+      <c r="L249" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251" t="s">
+        <v>789</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C251" t="s">
+        <v>791</v>
+      </c>
+      <c r="D251" t="s">
+        <v>792</v>
+      </c>
+      <c r="E251" t="s">
+        <v>793</v>
+      </c>
+      <c r="F251" t="s">
+        <v>794</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H251" t="s">
+        <v>796</v>
+      </c>
+      <c r="I251" t="s">
+        <v>797</v>
+      </c>
+      <c r="J251" t="s">
+        <v>27</v>
+      </c>
+      <c r="K251" t="s">
+        <v>798</v>
+      </c>
+      <c r="L251" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="H252" t="s">
+        <v>799</v>
+      </c>
+      <c r="I252" t="s">
+        <v>26</v>
+      </c>
+      <c r="J252" t="s">
+        <v>27</v>
+      </c>
+      <c r="K252" t="s">
+        <v>798</v>
+      </c>
+      <c r="L252" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="H253" t="s">
+        <v>800</v>
+      </c>
+      <c r="I253" t="s">
+        <v>26</v>
+      </c>
+      <c r="J253" t="s">
+        <v>27</v>
+      </c>
+      <c r="K253" t="s">
+        <v>798</v>
+      </c>
+      <c r="L253" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" t="s">
+        <v>801</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C255" t="s">
+        <v>791</v>
+      </c>
+      <c r="D255" t="s">
+        <v>792</v>
+      </c>
+      <c r="E255" t="s">
+        <v>747</v>
+      </c>
+      <c r="F255" t="s">
+        <v>794</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H255" t="s">
+        <v>796</v>
+      </c>
+      <c r="I255" t="s">
+        <v>797</v>
+      </c>
+      <c r="J255" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" t="s">
+        <v>798</v>
+      </c>
+      <c r="L255" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="H256" t="s">
+        <v>799</v>
+      </c>
+      <c r="I256" t="s">
+        <v>26</v>
+      </c>
+      <c r="J256" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" t="s">
+        <v>798</v>
+      </c>
+      <c r="L256" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="H257" t="s">
+        <v>800</v>
+      </c>
+      <c r="I257" t="s">
+        <v>26</v>
+      </c>
+      <c r="J257" t="s">
+        <v>27</v>
+      </c>
+      <c r="K257" t="s">
+        <v>798</v>
+      </c>
+      <c r="L257" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" t="s">
+        <v>804</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C259" t="s">
+        <v>806</v>
+      </c>
+      <c r="D259" t="s">
+        <v>807</v>
+      </c>
+      <c r="E259" t="s">
+        <v>808</v>
+      </c>
+      <c r="F259" t="s">
+        <v>809</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="H259" t="s">
+        <v>811</v>
+      </c>
+      <c r="I259" t="s">
+        <v>26</v>
+      </c>
+      <c r="J259" t="s">
+        <v>27</v>
+      </c>
+      <c r="K259" t="s">
+        <v>812</v>
+      </c>
+      <c r="L259" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="H260" t="s">
+        <v>813</v>
+      </c>
+      <c r="I260" t="s">
+        <v>26</v>
+      </c>
+      <c r="J260" t="s">
+        <v>27</v>
+      </c>
+      <c r="K260" t="s">
+        <v>812</v>
+      </c>
+      <c r="L260" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" t="s">
+        <v>814</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C262" t="s">
+        <v>816</v>
+      </c>
+      <c r="D262" t="s">
+        <v>817</v>
+      </c>
+      <c r="E262" t="s">
+        <v>818</v>
+      </c>
+      <c r="F262" t="s">
+        <v>819</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H262" t="s">
+        <v>821</v>
+      </c>
+      <c r="I262" t="s">
+        <v>822</v>
+      </c>
+      <c r="J262" t="s">
+        <v>27</v>
+      </c>
+      <c r="K262" t="s">
+        <v>823</v>
+      </c>
+      <c r="L262" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="H263" t="s">
+        <v>824</v>
+      </c>
+      <c r="I263" t="s">
+        <v>26</v>
+      </c>
+      <c r="J263" t="s">
+        <v>27</v>
+      </c>
+      <c r="K263" t="s">
+        <v>825</v>
+      </c>
+      <c r="L263" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="H264" t="s">
+        <v>826</v>
+      </c>
+      <c r="I264" t="s">
+        <v>26</v>
+      </c>
+      <c r="J264" t="s">
+        <v>27</v>
+      </c>
+      <c r="K264" t="s">
+        <v>827</v>
+      </c>
+      <c r="L264" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="H265" t="s">
+        <v>828</v>
+      </c>
+      <c r="I265" t="s">
+        <v>26</v>
+      </c>
+      <c r="J265" t="s">
+        <v>27</v>
+      </c>
+      <c r="K265" t="s">
+        <v>829</v>
+      </c>
+      <c r="L265" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
+      <c r="A267" t="s">
+        <v>830</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C267" t="s">
+        <v>832</v>
+      </c>
+      <c r="D267" t="s">
+        <v>833</v>
+      </c>
+      <c r="E267" t="s">
+        <v>834</v>
+      </c>
+      <c r="F267" t="s">
+        <v>835</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H267" t="s">
+        <v>837</v>
+      </c>
+      <c r="I267" t="s">
+        <v>26</v>
+      </c>
+      <c r="J267" t="s">
+        <v>27</v>
+      </c>
+      <c r="K267" t="s">
+        <v>838</v>
+      </c>
+      <c r="L267" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="H268" t="s">
+        <v>839</v>
+      </c>
+      <c r="I268" t="s">
+        <v>26</v>
+      </c>
+      <c r="J268" t="s">
+        <v>27</v>
+      </c>
+      <c r="K268" t="s">
+        <v>838</v>
+      </c>
+      <c r="L268" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270" t="s">
+        <v>840</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C270" t="s">
+        <v>842</v>
+      </c>
+      <c r="D270" t="s">
+        <v>843</v>
+      </c>
+      <c r="E270" t="s">
+        <v>844</v>
+      </c>
+      <c r="F270" t="s">
+        <v>845</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="H270" t="s">
+        <v>847</v>
+      </c>
+      <c r="I270" t="s">
+        <v>26</v>
+      </c>
+      <c r="J270" t="s">
+        <v>848</v>
+      </c>
+      <c r="K270" t="s">
+        <v>849</v>
+      </c>
+      <c r="L270" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="H271" t="s">
+        <v>850</v>
+      </c>
+      <c r="I271" t="s">
+        <v>26</v>
+      </c>
+      <c r="J271" t="s">
+        <v>27</v>
+      </c>
+      <c r="K271" t="s">
+        <v>849</v>
+      </c>
+      <c r="L271" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
+      <c r="H272" t="s">
+        <v>851</v>
+      </c>
+      <c r="I272" t="s">
+        <v>26</v>
+      </c>
+      <c r="J272" t="s">
+        <v>27</v>
+      </c>
+      <c r="K272" t="s">
+        <v>852</v>
+      </c>
+      <c r="L272" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="273" spans="8:12">
+      <c r="H273" t="s">
+        <v>853</v>
+      </c>
+      <c r="I273" t="s">
+        <v>26</v>
+      </c>
+      <c r="J273" t="s">
+        <v>27</v>
+      </c>
+      <c r="K273" t="s">
+        <v>855</v>
+      </c>
+      <c r="L273" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="8:12">
+      <c r="H274" t="s">
+        <v>856</v>
+      </c>
+      <c r="I274" t="s">
+        <v>26</v>
+      </c>
+      <c r="J274" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" t="s">
+        <v>857</v>
+      </c>
+      <c r="L274" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="275" spans="8:12">
+      <c r="H275" t="s">
+        <v>858</v>
+      </c>
+      <c r="I275" t="s">
+        <v>26</v>
+      </c>
+      <c r="J275" t="s">
+        <v>27</v>
+      </c>
+      <c r="K275" t="s">
+        <v>857</v>
+      </c>
+      <c r="L275" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="276" spans="8:12">
+      <c r="H276" t="s">
+        <v>859</v>
+      </c>
+      <c r="I276" t="s">
+        <v>26</v>
+      </c>
+      <c r="J276" t="s">
+        <v>27</v>
+      </c>
+      <c r="K276" t="s">
+        <v>860</v>
+      </c>
+      <c r="L276" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="277" spans="8:12">
+      <c r="H277" t="s">
+        <v>861</v>
+      </c>
+      <c r="I277" t="s">
+        <v>26</v>
+      </c>
+      <c r="J277" t="s">
+        <v>27</v>
+      </c>
+      <c r="K277" t="s">
+        <v>854</v>
+      </c>
+      <c r="L277" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="278" spans="8:12">
+      <c r="H278" t="s">
+        <v>862</v>
+      </c>
+      <c r="I278" t="s">
+        <v>26</v>
+      </c>
+      <c r="J278" t="s">
+        <v>27</v>
+      </c>
+      <c r="K278" t="s">
+        <v>863</v>
+      </c>
+      <c r="L278" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="279" spans="8:12">
+      <c r="H279" t="s">
+        <v>864</v>
+      </c>
+      <c r="I279" t="s">
+        <v>26</v>
+      </c>
+      <c r="J279" t="s">
+        <v>27</v>
+      </c>
+      <c r="K279" t="s">
+        <v>865</v>
+      </c>
+      <c r="L279" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="280" spans="8:12">
+      <c r="H280" t="s">
+        <v>492</v>
+      </c>
+      <c r="I280" t="s">
+        <v>26</v>
+      </c>
+      <c r="J280" t="s">
+        <v>27</v>
+      </c>
+      <c r="K280" t="s">
+        <v>849</v>
+      </c>
+      <c r="L280" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="281" spans="8:12">
+      <c r="H281" t="s">
+        <v>866</v>
+      </c>
+      <c r="I281" t="s">
+        <v>26</v>
+      </c>
+      <c r="J281" t="s">
+        <v>27</v>
+      </c>
+      <c r="K281" t="s">
+        <v>867</v>
+      </c>
+      <c r="L281" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="282" spans="8:12">
+      <c r="H282" t="s">
+        <v>868</v>
+      </c>
+      <c r="I282" t="s">
+        <v>26</v>
+      </c>
+      <c r="J282" t="s">
+        <v>27</v>
+      </c>
+      <c r="K282" t="s">
+        <v>869</v>
+      </c>
+      <c r="L282" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="283" spans="8:12">
+      <c r="H283" t="s">
+        <v>870</v>
+      </c>
+      <c r="I283" t="s">
+        <v>26</v>
+      </c>
+      <c r="J283" t="s">
+        <v>27</v>
+      </c>
+      <c r="K283" t="s">
+        <v>871</v>
+      </c>
+      <c r="L283" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="284" spans="8:12">
+      <c r="H284" t="s">
+        <v>872</v>
+      </c>
+      <c r="I284" t="s">
+        <v>26</v>
+      </c>
+      <c r="J284" t="s">
+        <v>27</v>
+      </c>
+      <c r="K284" t="s">
+        <v>873</v>
+      </c>
+      <c r="L284" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="285" spans="8:12">
+      <c r="H285" t="s">
+        <v>874</v>
+      </c>
+      <c r="I285" t="s">
+        <v>26</v>
+      </c>
+      <c r="J285" t="s">
+        <v>27</v>
+      </c>
+      <c r="K285" t="s">
+        <v>875</v>
+      </c>
+      <c r="L285" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="286" spans="8:12">
+      <c r="H286" t="s">
+        <v>876</v>
+      </c>
+      <c r="I286" t="s">
+        <v>26</v>
+      </c>
+      <c r="J286" t="s">
+        <v>27</v>
+      </c>
+      <c r="K286" t="s">
+        <v>877</v>
+      </c>
+      <c r="L286" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="287" spans="8:12">
+      <c r="H287" t="s">
+        <v>878</v>
+      </c>
+      <c r="I287" t="s">
+        <v>26</v>
+      </c>
+      <c r="J287" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" t="s">
+        <v>879</v>
+      </c>
+      <c r="L287" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="288" spans="8:12">
+      <c r="H288" t="s">
+        <v>880</v>
+      </c>
+      <c r="I288" t="s">
+        <v>26</v>
+      </c>
+      <c r="J288" t="s">
+        <v>27</v>
+      </c>
+      <c r="K288" t="s">
+        <v>881</v>
+      </c>
+      <c r="L288" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
+      <c r="H289" t="s">
+        <v>882</v>
+      </c>
+      <c r="I289" t="s">
+        <v>26</v>
+      </c>
+      <c r="J289" t="s">
+        <v>27</v>
+      </c>
+      <c r="K289" t="s">
+        <v>883</v>
+      </c>
+      <c r="L289" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
+      <c r="H290" t="s">
+        <v>884</v>
+      </c>
+      <c r="I290" t="s">
+        <v>26</v>
+      </c>
+      <c r="J290" t="s">
+        <v>27</v>
+      </c>
+      <c r="K290" t="s">
+        <v>885</v>
+      </c>
+      <c r="L290" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
+      <c r="H291" t="s">
+        <v>521</v>
+      </c>
+      <c r="I291" t="s">
+        <v>26</v>
+      </c>
+      <c r="J291" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" t="s">
+        <v>857</v>
+      </c>
+      <c r="L291" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
+      <c r="H292" t="s">
+        <v>887</v>
+      </c>
+      <c r="I292" t="s">
+        <v>26</v>
+      </c>
+      <c r="J292" t="s">
+        <v>27</v>
+      </c>
+      <c r="K292" t="s">
+        <v>888</v>
+      </c>
+      <c r="L292" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
+      <c r="H293" t="s">
+        <v>889</v>
+      </c>
+      <c r="I293" t="s">
+        <v>26</v>
+      </c>
+      <c r="J293" t="s">
+        <v>27</v>
+      </c>
+      <c r="K293" t="s">
+        <v>852</v>
+      </c>
+      <c r="L293" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
+      <c r="H294" t="s">
+        <v>890</v>
+      </c>
+      <c r="I294" t="s">
+        <v>26</v>
+      </c>
+      <c r="J294" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" t="s">
+        <v>877</v>
+      </c>
+      <c r="L294" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
+      <c r="H295" t="s">
+        <v>891</v>
+      </c>
+      <c r="I295" t="s">
+        <v>26</v>
+      </c>
+      <c r="J295" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" t="s">
+        <v>875</v>
+      </c>
+      <c r="L295" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
+      <c r="A297" t="s">
+        <v>892</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C297" t="s">
+        <v>894</v>
+      </c>
+      <c r="D297" t="s">
+        <v>174</v>
+      </c>
+      <c r="E297" t="s">
+        <v>895</v>
+      </c>
+      <c r="F297" t="s">
+        <v>896</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H297" t="s">
+        <v>898</v>
+      </c>
+      <c r="I297" t="s">
+        <v>899</v>
+      </c>
+      <c r="J297" t="s">
+        <v>27</v>
+      </c>
+      <c r="K297" t="s">
+        <v>903</v>
+      </c>
+      <c r="L297" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
+      <c r="H298" t="s">
+        <v>904</v>
+      </c>
+      <c r="I298" t="s">
+        <v>26</v>
+      </c>
+      <c r="J298" t="s">
+        <v>27</v>
+      </c>
+      <c r="K298" t="s">
+        <v>905</v>
+      </c>
+      <c r="L298" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
+      <c r="A300" t="s">
+        <v>906</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C300" t="s">
+        <v>908</v>
+      </c>
+      <c r="D300" t="s">
+        <v>909</v>
+      </c>
+      <c r="E300" t="s">
+        <v>910</v>
+      </c>
+      <c r="F300" t="s">
+        <v>911</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H300" t="s">
+        <v>913</v>
+      </c>
+      <c r="I300" t="s">
+        <v>914</v>
+      </c>
+      <c r="J300" t="s">
+        <v>27</v>
+      </c>
+      <c r="K300" t="s">
+        <v>916</v>
+      </c>
+      <c r="L300" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
+      <c r="H301" t="s">
+        <v>917</v>
+      </c>
+      <c r="I301" t="s">
+        <v>26</v>
+      </c>
+      <c r="J301" t="s">
+        <v>27</v>
+      </c>
+      <c r="K301" t="s">
+        <v>916</v>
+      </c>
+      <c r="L301" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
+      <c r="H302" t="s">
+        <v>918</v>
+      </c>
+      <c r="I302" t="s">
+        <v>26</v>
+      </c>
+      <c r="J302" t="s">
+        <v>27</v>
+      </c>
+      <c r="K302" t="s">
+        <v>919</v>
+      </c>
+      <c r="L302" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
+      <c r="H303" t="s">
+        <v>920</v>
+      </c>
+      <c r="I303" t="s">
+        <v>26</v>
+      </c>
+      <c r="J303" t="s">
+        <v>27</v>
+      </c>
+      <c r="K303" t="s">
+        <v>916</v>
+      </c>
+      <c r="L303" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
+      <c r="H304" t="s">
+        <v>921</v>
+      </c>
+      <c r="I304" t="s">
+        <v>26</v>
+      </c>
+      <c r="J304" t="s">
+        <v>27</v>
+      </c>
+      <c r="K304" t="s">
+        <v>915</v>
+      </c>
+      <c r="L304" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
+      <c r="H305" t="s">
+        <v>922</v>
+      </c>
+      <c r="I305" t="s">
+        <v>26</v>
+      </c>
+      <c r="J305" t="s">
+        <v>27</v>
+      </c>
+      <c r="K305" t="s">
+        <v>923</v>
+      </c>
+      <c r="L305" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
+      <c r="H306" t="s">
+        <v>924</v>
+      </c>
+      <c r="I306" t="s">
+        <v>26</v>
+      </c>
+      <c r="J306" t="s">
+        <v>27</v>
+      </c>
+      <c r="K306" t="s">
+        <v>915</v>
+      </c>
+      <c r="L306" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
+      <c r="H307" t="s">
+        <v>925</v>
+      </c>
+      <c r="I307" t="s">
+        <v>26</v>
+      </c>
+      <c r="J307" t="s">
+        <v>27</v>
+      </c>
+      <c r="K307" t="s">
+        <v>915</v>
+      </c>
+      <c r="L307" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
+      <c r="H308" t="s">
+        <v>926</v>
+      </c>
+      <c r="I308" t="s">
+        <v>26</v>
+      </c>
+      <c r="J308" t="s">
+        <v>27</v>
+      </c>
+      <c r="K308" t="s">
+        <v>915</v>
+      </c>
+      <c r="L308" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
+      <c r="H309" t="s">
+        <v>927</v>
+      </c>
+      <c r="I309" t="s">
+        <v>26</v>
+      </c>
+      <c r="J309" t="s">
+        <v>27</v>
+      </c>
+      <c r="K309" t="s">
+        <v>928</v>
+      </c>
+      <c r="L309" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
+      <c r="H310" t="s">
+        <v>929</v>
+      </c>
+      <c r="I310" t="s">
+        <v>26</v>
+      </c>
+      <c r="J310" t="s">
+        <v>27</v>
+      </c>
+      <c r="K310" t="s">
+        <v>915</v>
+      </c>
+      <c r="L310" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
+      <c r="H311" t="s">
+        <v>930</v>
+      </c>
+      <c r="I311" t="s">
+        <v>26</v>
+      </c>
+      <c r="J311" t="s">
+        <v>27</v>
+      </c>
+      <c r="K311" t="s">
+        <v>931</v>
+      </c>
+      <c r="L311" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
+      <c r="H312" t="s">
+        <v>932</v>
+      </c>
+      <c r="I312" t="s">
+        <v>26</v>
+      </c>
+      <c r="J312" t="s">
+        <v>27</v>
+      </c>
+      <c r="K312" t="s">
+        <v>934</v>
+      </c>
+      <c r="L312" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
+      <c r="A314" t="s">
+        <v>935</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C314" t="s">
+        <v>937</v>
+      </c>
+      <c r="D314" t="s">
+        <v>649</v>
+      </c>
+      <c r="E314" t="s">
+        <v>650</v>
+      </c>
+      <c r="F314" t="s">
+        <v>651</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="H314" t="s">
+        <v>939</v>
+      </c>
+      <c r="I314" t="s">
+        <v>26</v>
+      </c>
+      <c r="J314" t="s">
+        <v>27</v>
+      </c>
+      <c r="K314" t="s">
+        <v>940</v>
+      </c>
+      <c r="L314" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
+      <c r="A316" t="s">
+        <v>941</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C316" t="s">
+        <v>943</v>
+      </c>
+      <c r="D316" t="s">
+        <v>944</v>
+      </c>
+      <c r="E316" t="s">
+        <v>945</v>
+      </c>
+      <c r="F316" t="s">
+        <v>946</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="H316" t="s">
+        <v>948</v>
+      </c>
+      <c r="I316" t="s">
+        <v>633</v>
+      </c>
+      <c r="J316" t="s">
+        <v>27</v>
+      </c>
+      <c r="K316" t="s">
+        <v>949</v>
+      </c>
+      <c r="L316" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
+      <c r="H317" t="s">
+        <v>950</v>
+      </c>
+      <c r="I317" t="s">
+        <v>951</v>
+      </c>
+      <c r="J317" t="s">
+        <v>27</v>
+      </c>
+      <c r="K317" t="s">
+        <v>952</v>
+      </c>
+      <c r="L317" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
+      <c r="H318" t="s">
+        <v>953</v>
+      </c>
+      <c r="I318" t="s">
+        <v>954</v>
+      </c>
+      <c r="J318" t="s">
+        <v>27</v>
+      </c>
+      <c r="K318" t="s">
+        <v>955</v>
+      </c>
+      <c r="L318" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
+      <c r="A320" t="s">
+        <v>957</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C320" t="s">
+        <v>959</v>
+      </c>
+      <c r="D320" t="s">
+        <v>833</v>
+      </c>
+      <c r="E320" t="s">
+        <v>960</v>
+      </c>
+      <c r="F320" t="s">
+        <v>961</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="H320" t="s">
+        <v>837</v>
+      </c>
+      <c r="I320" t="s">
+        <v>26</v>
+      </c>
+      <c r="J320" t="s">
+        <v>27</v>
+      </c>
+      <c r="K320" t="s">
+        <v>963</v>
+      </c>
+      <c r="L320" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
+      <c r="H321" t="s">
+        <v>839</v>
+      </c>
+      <c r="I321" t="s">
+        <v>26</v>
+      </c>
+      <c r="J321" t="s">
+        <v>27</v>
+      </c>
+      <c r="K321" t="s">
+        <v>963</v>
+      </c>
+      <c r="L321" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
+      <c r="A323" t="s">
+        <v>964</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C323" t="s">
+        <v>966</v>
+      </c>
+      <c r="D323" t="s">
+        <v>967</v>
+      </c>
+      <c r="E323" t="s">
+        <v>968</v>
+      </c>
+      <c r="F323" t="s">
+        <v>969</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
@@ -1946,6 +9166,125 @@
     <hyperlink ref="G50" r:id="rId30"/>
     <hyperlink ref="B54" r:id="rId31"/>
     <hyperlink ref="G54" r:id="rId32"/>
+    <hyperlink ref="B56" r:id="rId33"/>
+    <hyperlink ref="G56" r:id="rId34"/>
+    <hyperlink ref="B61" r:id="rId35"/>
+    <hyperlink ref="G61" r:id="rId36"/>
+    <hyperlink ref="B63" r:id="rId37"/>
+    <hyperlink ref="G63" r:id="rId38"/>
+    <hyperlink ref="B70" r:id="rId39"/>
+    <hyperlink ref="G70" r:id="rId40"/>
+    <hyperlink ref="B72" r:id="rId41"/>
+    <hyperlink ref="G72" r:id="rId42"/>
+    <hyperlink ref="B76" r:id="rId43"/>
+    <hyperlink ref="G76" r:id="rId44"/>
+    <hyperlink ref="B80" r:id="rId45"/>
+    <hyperlink ref="G80" r:id="rId46"/>
+    <hyperlink ref="B83" r:id="rId47"/>
+    <hyperlink ref="G83" r:id="rId48"/>
+    <hyperlink ref="B85" r:id="rId49"/>
+    <hyperlink ref="G85" r:id="rId50"/>
+    <hyperlink ref="B91" r:id="rId51"/>
+    <hyperlink ref="G91" r:id="rId52"/>
+    <hyperlink ref="B93" r:id="rId53"/>
+    <hyperlink ref="G93" r:id="rId54"/>
+    <hyperlink ref="B95" r:id="rId55"/>
+    <hyperlink ref="G95" r:id="rId56"/>
+    <hyperlink ref="B97" r:id="rId57"/>
+    <hyperlink ref="G97" r:id="rId58"/>
+    <hyperlink ref="B99" r:id="rId59"/>
+    <hyperlink ref="G99" r:id="rId60"/>
+    <hyperlink ref="B101" r:id="rId61"/>
+    <hyperlink ref="G101" r:id="rId62"/>
+    <hyperlink ref="B103" r:id="rId63"/>
+    <hyperlink ref="G103" r:id="rId64"/>
+    <hyperlink ref="B109" r:id="rId65"/>
+    <hyperlink ref="G109" r:id="rId66"/>
+    <hyperlink ref="B112" r:id="rId67"/>
+    <hyperlink ref="G112" r:id="rId68"/>
+    <hyperlink ref="B115" r:id="rId69"/>
+    <hyperlink ref="G115" r:id="rId70"/>
+    <hyperlink ref="B117" r:id="rId71"/>
+    <hyperlink ref="G117" r:id="rId72"/>
+    <hyperlink ref="K117" r:id="rId73"/>
+    <hyperlink ref="B122" r:id="rId74"/>
+    <hyperlink ref="G122" r:id="rId75"/>
+    <hyperlink ref="B126" r:id="rId76"/>
+    <hyperlink ref="G126" r:id="rId77"/>
+    <hyperlink ref="B129" r:id="rId78"/>
+    <hyperlink ref="G129" r:id="rId79"/>
+    <hyperlink ref="B131" r:id="rId80"/>
+    <hyperlink ref="G131" r:id="rId81"/>
+    <hyperlink ref="B133" r:id="rId82"/>
+    <hyperlink ref="G133" r:id="rId83"/>
+    <hyperlink ref="B148" r:id="rId84"/>
+    <hyperlink ref="G148" r:id="rId85"/>
+    <hyperlink ref="B167" r:id="rId86"/>
+    <hyperlink ref="G167" r:id="rId87"/>
+    <hyperlink ref="B174" r:id="rId88"/>
+    <hyperlink ref="G174" r:id="rId89"/>
+    <hyperlink ref="B181" r:id="rId90"/>
+    <hyperlink ref="G181" r:id="rId91"/>
+    <hyperlink ref="B184" r:id="rId92"/>
+    <hyperlink ref="G184" r:id="rId93"/>
+    <hyperlink ref="B187" r:id="rId94"/>
+    <hyperlink ref="G187" r:id="rId95"/>
+    <hyperlink ref="B188" r:id="rId96"/>
+    <hyperlink ref="G188" r:id="rId97"/>
+    <hyperlink ref="B192" r:id="rId98"/>
+    <hyperlink ref="G192" r:id="rId99"/>
+    <hyperlink ref="B194" r:id="rId100"/>
+    <hyperlink ref="G194" r:id="rId101"/>
+    <hyperlink ref="B197" r:id="rId102"/>
+    <hyperlink ref="G197" r:id="rId103"/>
+    <hyperlink ref="B199" r:id="rId104"/>
+    <hyperlink ref="G199" r:id="rId105"/>
+    <hyperlink ref="B215" r:id="rId106"/>
+    <hyperlink ref="G215" r:id="rId107"/>
+    <hyperlink ref="B218" r:id="rId108"/>
+    <hyperlink ref="G218" r:id="rId109"/>
+    <hyperlink ref="B222" r:id="rId110"/>
+    <hyperlink ref="G222" r:id="rId111"/>
+    <hyperlink ref="B228" r:id="rId112"/>
+    <hyperlink ref="G228" r:id="rId113"/>
+    <hyperlink ref="B231" r:id="rId114"/>
+    <hyperlink ref="G231" r:id="rId115"/>
+    <hyperlink ref="B233" r:id="rId116"/>
+    <hyperlink ref="G233" r:id="rId117"/>
+    <hyperlink ref="B234" r:id="rId118"/>
+    <hyperlink ref="G234" r:id="rId119"/>
+    <hyperlink ref="K234" r:id="rId120"/>
+    <hyperlink ref="B242" r:id="rId121"/>
+    <hyperlink ref="G242" r:id="rId122"/>
+    <hyperlink ref="B245" r:id="rId123"/>
+    <hyperlink ref="G245" r:id="rId124"/>
+    <hyperlink ref="B248" r:id="rId125"/>
+    <hyperlink ref="G248" r:id="rId126"/>
+    <hyperlink ref="B251" r:id="rId127"/>
+    <hyperlink ref="G251" r:id="rId128"/>
+    <hyperlink ref="B255" r:id="rId129"/>
+    <hyperlink ref="G255" r:id="rId130"/>
+    <hyperlink ref="B259" r:id="rId131"/>
+    <hyperlink ref="G259" r:id="rId132"/>
+    <hyperlink ref="B262" r:id="rId133"/>
+    <hyperlink ref="G262" r:id="rId134"/>
+    <hyperlink ref="B267" r:id="rId135"/>
+    <hyperlink ref="G267" r:id="rId136"/>
+    <hyperlink ref="B270" r:id="rId137"/>
+    <hyperlink ref="G270" r:id="rId138"/>
+    <hyperlink ref="B297" r:id="rId139"/>
+    <hyperlink ref="G297" r:id="rId140"/>
+    <hyperlink ref="K297" r:id="rId141"/>
+    <hyperlink ref="B300" r:id="rId142"/>
+    <hyperlink ref="G300" r:id="rId143"/>
+    <hyperlink ref="B314" r:id="rId144"/>
+    <hyperlink ref="G314" r:id="rId145"/>
+    <hyperlink ref="B316" r:id="rId146"/>
+    <hyperlink ref="G316" r:id="rId147"/>
+    <hyperlink ref="B320" r:id="rId148"/>
+    <hyperlink ref="G320" r:id="rId149"/>
+    <hyperlink ref="B323" r:id="rId150"/>
+    <hyperlink ref="G323" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
